--- a/Floodtags_analytics/FSD_1777_19Oct_Labelled.xlsx
+++ b/Floodtags_analytics/FSD_1777_19Oct_Labelled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\LLM-repo1\Floodtags_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1C2273-8084-4C81-B608-5312EAA1C741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255F84E7-37CC-48F6-8442-BD81AAFE1A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{76D4A80F-3A3A-402B-8848-09C81928FD48}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{76D4A80F-3A3A-402B-8848-09C81928FD48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="2978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="2977">
   <si>
     <t>id</t>
   </si>
@@ -9791,9 +9791,6 @@
   </si>
   <si>
     <t>Angus, south Aberdeenshire, Dundee, Perth, Kinross</t>
-  </si>
-  <si>
-    <t>KnutsFord, Cheshire</t>
   </si>
   <si>
     <t>33% of annual rain in one day</t>
@@ -9874,7 +9871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -9882,6 +9879,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10199,10 +10199,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B78A4-FF2B-462E-BE07-9DE80B8A6775}">
   <dimension ref="A1:J976"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13719,19 +13719,17 @@
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>575</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>2975</v>
-      </c>
+      <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2" t="s">
@@ -13761,7 +13759,7 @@
         <v>2918</v>
       </c>
       <c r="J194" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.35">
@@ -13792,7 +13790,7 @@
         <v>586</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>

--- a/Floodtags_analytics/FSD_1777_19Oct_Labelled.xlsx
+++ b/Floodtags_analytics/FSD_1777_19Oct_Labelled.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\LLM-repo1\Floodtags_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C03B8CA-3FD5-4208-B48D-5254292D4E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BAAC31-7785-4A55-8CC5-E550CC1F3197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{76D4A80F-3A3A-402B-8848-09C81928FD48}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="3003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="3002">
   <si>
     <t>id</t>
   </si>
@@ -9821,9 +9821,6 @@
   </si>
   <si>
     <t>Road north of us to Oban now closed because bridge collapsing after floods</t>
-  </si>
-  <si>
-    <t>Aviemore Holiday Park</t>
   </si>
   <si>
     <t>The scenes from Middleton are so upsetting. So many homes and businesses devastated</t>
@@ -10354,12 +10351,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B78A4-FF2B-462E-BE07-9DE80B8A6775}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J976"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C557" sqref="C557"/>
+      <selection pane="bottomLeft" activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10406,7 +10404,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -10426,7 +10424,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -10443,7 +10441,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -10460,7 +10458,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -10477,7 +10475,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -10494,7 +10492,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -10515,7 +10513,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -10536,7 +10534,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -10559,7 +10557,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -10582,7 +10580,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -10599,7 +10597,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -10620,7 +10618,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -10641,7 +10639,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -10658,7 +10656,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -10675,7 +10673,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -10692,7 +10690,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -10709,7 +10707,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -10732,7 +10730,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -10749,7 +10747,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -10766,7 +10764,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -10783,7 +10781,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
@@ -10797,7 +10795,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -10817,7 +10815,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
@@ -10831,7 +10829,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
@@ -10853,7 +10851,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>74</v>
       </c>
@@ -10874,7 +10872,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
@@ -10894,7 +10892,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
@@ -10908,7 +10906,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -10928,7 +10926,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
@@ -10942,7 +10940,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
@@ -10962,7 +10960,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -10982,7 +10980,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>95</v>
       </c>
@@ -10996,7 +10994,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
@@ -11016,7 +11014,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>101</v>
       </c>
@@ -11036,7 +11034,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>104</v>
       </c>
@@ -11056,7 +11054,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>107</v>
       </c>
@@ -11078,7 +11076,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>110</v>
       </c>
@@ -11092,7 +11090,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>113</v>
       </c>
@@ -11117,7 +11115,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>116</v>
       </c>
@@ -11131,7 +11129,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>119</v>
       </c>
@@ -11145,7 +11143,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -11164,7 +11162,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -11184,7 +11182,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -11204,7 +11202,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
@@ -11221,7 +11219,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>134</v>
       </c>
@@ -11243,7 +11241,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>137</v>
       </c>
@@ -11262,7 +11260,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>140</v>
       </c>
@@ -11279,7 +11277,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>143</v>
       </c>
@@ -11293,7 +11291,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>146</v>
       </c>
@@ -11315,7 +11313,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>149</v>
       </c>
@@ -11335,7 +11333,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>152</v>
       </c>
@@ -11354,7 +11352,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>155</v>
       </c>
@@ -11368,7 +11366,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>158</v>
       </c>
@@ -11392,7 +11390,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>161</v>
       </c>
@@ -11406,7 +11404,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>164</v>
       </c>
@@ -11425,7 +11423,7 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>167</v>
       </c>
@@ -11445,7 +11443,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>170</v>
       </c>
@@ -11459,7 +11457,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>173</v>
       </c>
@@ -11473,7 +11471,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>176</v>
       </c>
@@ -11493,7 +11491,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>179</v>
       </c>
@@ -11510,7 +11508,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>182</v>
       </c>
@@ -11524,7 +11522,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>185</v>
       </c>
@@ -11541,7 +11539,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>188</v>
       </c>
@@ -11561,7 +11559,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>191</v>
       </c>
@@ -11575,7 +11573,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>194</v>
       </c>
@@ -11589,7 +11587,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>197</v>
       </c>
@@ -11603,7 +11601,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>200</v>
       </c>
@@ -11617,7 +11615,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>203</v>
       </c>
@@ -11641,7 +11639,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>206</v>
       </c>
@@ -11658,7 +11656,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>209</v>
       </c>
@@ -11678,7 +11676,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>212</v>
       </c>
@@ -11692,7 +11690,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>215</v>
       </c>
@@ -11716,7 +11714,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>218</v>
       </c>
@@ -11730,7 +11728,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>221</v>
       </c>
@@ -11744,7 +11742,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>224</v>
       </c>
@@ -11768,7 +11766,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>227</v>
       </c>
@@ -11785,7 +11783,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>230</v>
       </c>
@@ -11802,7 +11800,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>233</v>
       </c>
@@ -11816,7 +11814,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>236</v>
       </c>
@@ -11839,7 +11837,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>239</v>
       </c>
@@ -11856,7 +11854,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>242</v>
       </c>
@@ -11870,7 +11868,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>245</v>
       </c>
@@ -11887,7 +11885,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>248</v>
       </c>
@@ -11901,7 +11899,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>251</v>
       </c>
@@ -11918,7 +11916,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>254</v>
       </c>
@@ -11932,7 +11930,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>257</v>
       </c>
@@ -11946,7 +11944,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>260</v>
       </c>
@@ -11966,7 +11964,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>263</v>
       </c>
@@ -11980,7 +11978,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>266</v>
       </c>
@@ -12004,7 +12002,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>269</v>
       </c>
@@ -12021,7 +12019,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>272</v>
       </c>
@@ -12035,7 +12033,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>275</v>
       </c>
@@ -12057,7 +12055,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>278</v>
       </c>
@@ -12079,7 +12077,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>281</v>
       </c>
@@ -12093,7 +12091,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>284</v>
       </c>
@@ -12107,7 +12105,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>287</v>
       </c>
@@ -12127,7 +12125,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>290</v>
       </c>
@@ -12141,7 +12139,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>293</v>
       </c>
@@ -12155,7 +12153,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>296</v>
       </c>
@@ -12169,7 +12167,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>299</v>
       </c>
@@ -12188,7 +12186,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>302</v>
       </c>
@@ -12208,7 +12206,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>305</v>
       </c>
@@ -12227,7 +12225,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>308</v>
       </c>
@@ -12247,7 +12245,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>311</v>
       </c>
@@ -12261,7 +12259,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>314</v>
       </c>
@@ -12285,7 +12283,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>317</v>
       </c>
@@ -12302,7 +12300,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>320</v>
       </c>
@@ -12324,7 +12322,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>323</v>
       </c>
@@ -12348,7 +12346,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>326</v>
       </c>
@@ -12365,7 +12363,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>329</v>
       </c>
@@ -12384,7 +12382,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>332</v>
       </c>
@@ -12404,7 +12402,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>335</v>
       </c>
@@ -12421,7 +12419,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>338</v>
       </c>
@@ -12441,7 +12439,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>341</v>
       </c>
@@ -12455,7 +12453,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>344</v>
       </c>
@@ -12474,7 +12472,7 @@
       </c>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>347</v>
       </c>
@@ -12488,7 +12486,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>350</v>
       </c>
@@ -12505,7 +12503,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>353</v>
       </c>
@@ -12519,7 +12517,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>356</v>
       </c>
@@ -12536,7 +12534,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>359</v>
       </c>
@@ -12553,7 +12551,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>362</v>
       </c>
@@ -12570,7 +12568,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>365</v>
       </c>
@@ -12587,7 +12585,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>368</v>
       </c>
@@ -12607,7 +12605,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>371</v>
       </c>
@@ -12624,7 +12622,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>374</v>
       </c>
@@ -12638,7 +12636,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>377</v>
       </c>
@@ -12655,7 +12653,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>380</v>
       </c>
@@ -12672,7 +12670,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>383</v>
       </c>
@@ -12686,7 +12684,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>386</v>
       </c>
@@ -12700,7 +12698,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>389</v>
       </c>
@@ -12714,7 +12712,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>392</v>
       </c>
@@ -12731,7 +12729,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>395</v>
       </c>
@@ -12750,7 +12748,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>398</v>
       </c>
@@ -12764,7 +12762,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>401</v>
       </c>
@@ -12781,7 +12779,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>404</v>
       </c>
@@ -12800,7 +12798,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>407</v>
       </c>
@@ -12820,7 +12818,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>410</v>
       </c>
@@ -12837,7 +12835,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>413</v>
       </c>
@@ -12856,7 +12854,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>416</v>
       </c>
@@ -12878,7 +12876,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>419</v>
       </c>
@@ -12903,7 +12901,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>422</v>
       </c>
@@ -12920,7 +12918,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>425</v>
       </c>
@@ -12934,7 +12932,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>428</v>
       </c>
@@ -12951,7 +12949,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>431</v>
       </c>
@@ -12973,7 +12971,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>434</v>
       </c>
@@ -12987,7 +12985,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>437</v>
       </c>
@@ -13004,7 +13002,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>440</v>
       </c>
@@ -13018,7 +13016,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>443</v>
       </c>
@@ -13042,7 +13040,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>446</v>
       </c>
@@ -13062,7 +13060,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>449</v>
       </c>
@@ -13076,7 +13074,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>452</v>
       </c>
@@ -13094,7 +13092,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>455</v>
       </c>
@@ -13117,7 +13115,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>458</v>
       </c>
@@ -13131,7 +13129,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>461</v>
       </c>
@@ -13148,7 +13146,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>464</v>
       </c>
@@ -13162,7 +13160,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>467</v>
       </c>
@@ -13187,7 +13185,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>470</v>
       </c>
@@ -13204,7 +13202,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>473</v>
       </c>
@@ -13218,7 +13216,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>476</v>
       </c>
@@ -13240,7 +13238,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>479</v>
       </c>
@@ -13259,7 +13257,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>482</v>
       </c>
@@ -13282,7 +13280,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>485</v>
       </c>
@@ -13302,7 +13300,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>488</v>
       </c>
@@ -13316,7 +13314,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>491</v>
       </c>
@@ -13335,7 +13333,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>494</v>
       </c>
@@ -13352,7 +13350,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>497</v>
       </c>
@@ -13377,7 +13375,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>500</v>
       </c>
@@ -13397,7 +13395,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>503</v>
       </c>
@@ -13411,7 +13409,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>506</v>
       </c>
@@ -13437,7 +13435,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>509</v>
       </c>
@@ -13460,7 +13458,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>512</v>
       </c>
@@ -13485,7 +13483,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>515</v>
       </c>
@@ -13512,7 +13510,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>518</v>
       </c>
@@ -13540,7 +13538,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>521</v>
       </c>
@@ -13562,7 +13560,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>524</v>
       </c>
@@ -13588,7 +13586,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>527</v>
       </c>
@@ -13602,7 +13600,7 @@
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>530</v>
       </c>
@@ -13624,7 +13622,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>533</v>
       </c>
@@ -13638,7 +13636,7 @@
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>536</v>
       </c>
@@ -13659,7 +13657,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>539</v>
       </c>
@@ -13676,7 +13674,7 @@
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>542</v>
       </c>
@@ -13690,7 +13688,7 @@
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>545</v>
       </c>
@@ -13715,7 +13713,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>548</v>
       </c>
@@ -13737,7 +13735,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>551</v>
       </c>
@@ -13751,7 +13749,7 @@
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>554</v>
       </c>
@@ -13765,7 +13763,7 @@
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>557</v>
       </c>
@@ -13790,7 +13788,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>560</v>
       </c>
@@ -13810,7 +13808,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>563</v>
       </c>
@@ -13834,7 +13832,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>566</v>
       </c>
@@ -13848,7 +13846,7 @@
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>569</v>
       </c>
@@ -13862,7 +13860,7 @@
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>572</v>
       </c>
@@ -13876,7 +13874,7 @@
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
     </row>
-    <row r="193" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>575</v>
       </c>
@@ -13896,7 +13894,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>578</v>
       </c>
@@ -13919,7 +13917,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>581</v>
       </c>
@@ -13936,7 +13934,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>584</v>
       </c>
@@ -13955,7 +13953,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>587</v>
       </c>
@@ -13969,7 +13967,7 @@
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>590</v>
       </c>
@@ -13988,7 +13986,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>593</v>
       </c>
@@ -14005,7 +14003,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>596</v>
       </c>
@@ -14022,7 +14020,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>599</v>
       </c>
@@ -14042,7 +14040,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>602</v>
       </c>
@@ -14056,7 +14054,7 @@
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>605</v>
       </c>
@@ -14070,7 +14068,7 @@
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>608</v>
       </c>
@@ -14084,7 +14082,7 @@
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>611</v>
       </c>
@@ -14098,7 +14096,7 @@
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>614</v>
       </c>
@@ -14112,7 +14110,7 @@
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>617</v>
       </c>
@@ -14126,7 +14124,7 @@
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>620</v>
       </c>
@@ -14140,7 +14138,7 @@
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>623</v>
       </c>
@@ -14154,7 +14152,7 @@
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>626</v>
       </c>
@@ -14168,7 +14166,7 @@
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>629</v>
       </c>
@@ -14182,7 +14180,7 @@
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>632</v>
       </c>
@@ -14196,7 +14194,7 @@
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>635</v>
       </c>
@@ -14210,7 +14208,7 @@
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>638</v>
       </c>
@@ -14224,7 +14222,7 @@
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>641</v>
       </c>
@@ -14238,7 +14236,7 @@
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>644</v>
       </c>
@@ -14252,7 +14250,7 @@
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>647</v>
       </c>
@@ -14266,7 +14264,7 @@
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>650</v>
       </c>
@@ -14280,7 +14278,7 @@
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>653</v>
       </c>
@@ -14294,7 +14292,7 @@
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>656</v>
       </c>
@@ -14308,7 +14306,7 @@
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>659</v>
       </c>
@@ -14322,7 +14320,7 @@
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>662</v>
       </c>
@@ -14336,7 +14334,7 @@
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>665</v>
       </c>
@@ -14350,7 +14348,7 @@
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>668</v>
       </c>
@@ -14364,7 +14362,7 @@
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>671</v>
       </c>
@@ -14378,7 +14376,7 @@
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>674</v>
       </c>
@@ -14392,7 +14390,7 @@
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>677</v>
       </c>
@@ -14406,7 +14404,7 @@
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>680</v>
       </c>
@@ -14420,7 +14418,7 @@
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>683</v>
       </c>
@@ -14434,7 +14432,7 @@
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>686</v>
       </c>
@@ -14448,7 +14446,7 @@
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>689</v>
       </c>
@@ -14462,7 +14460,7 @@
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>692</v>
       </c>
@@ -14476,7 +14474,7 @@
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>695</v>
       </c>
@@ -14490,7 +14488,7 @@
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>698</v>
       </c>
@@ -14504,7 +14502,7 @@
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>701</v>
       </c>
@@ -14518,7 +14516,7 @@
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>704</v>
       </c>
@@ -14532,7 +14530,7 @@
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>707</v>
       </c>
@@ -14546,7 +14544,7 @@
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>710</v>
       </c>
@@ -14560,7 +14558,7 @@
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>713</v>
       </c>
@@ -14574,7 +14572,7 @@
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>716</v>
       </c>
@@ -14588,7 +14586,7 @@
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>719</v>
       </c>
@@ -14602,7 +14600,7 @@
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>722</v>
       </c>
@@ -14616,7 +14614,7 @@
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>725</v>
       </c>
@@ -14630,7 +14628,7 @@
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>727</v>
       </c>
@@ -14644,7 +14642,7 @@
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>730</v>
       </c>
@@ -14658,7 +14656,7 @@
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>733</v>
       </c>
@@ -14672,7 +14670,7 @@
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>736</v>
       </c>
@@ -14686,7 +14684,7 @@
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>739</v>
       </c>
@@ -14700,7 +14698,7 @@
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>742</v>
       </c>
@@ -14717,7 +14715,7 @@
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>745</v>
       </c>
@@ -14731,7 +14729,7 @@
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>748</v>
       </c>
@@ -14762,7 +14760,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>754</v>
       </c>
@@ -14776,7 +14774,7 @@
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>757</v>
       </c>
@@ -14790,7 +14788,7 @@
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>760</v>
       </c>
@@ -14804,7 +14802,7 @@
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>763</v>
       </c>
@@ -14812,7 +14810,7 @@
         <v>761</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>2917</v>
@@ -14872,7 +14870,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>772</v>
       </c>
@@ -14886,7 +14884,7 @@
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>775</v>
       </c>
@@ -14900,7 +14898,7 @@
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>778</v>
       </c>
@@ -14917,7 +14915,7 @@
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>781</v>
       </c>
@@ -14931,7 +14929,7 @@
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>784</v>
       </c>
@@ -14945,7 +14943,7 @@
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>787</v>
       </c>
@@ -14976,7 +14974,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>793</v>
       </c>
@@ -15009,7 +15007,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>799</v>
       </c>
@@ -15023,7 +15021,7 @@
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>802</v>
       </c>
@@ -15037,7 +15035,7 @@
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>805</v>
       </c>
@@ -15051,7 +15049,7 @@
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>808</v>
       </c>
@@ -15065,7 +15063,7 @@
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>811</v>
       </c>
@@ -15079,7 +15077,7 @@
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>814</v>
       </c>
@@ -15093,7 +15091,7 @@
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>817</v>
       </c>
@@ -15107,7 +15105,7 @@
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>820</v>
       </c>
@@ -15124,7 +15122,7 @@
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>823</v>
       </c>
@@ -15138,7 +15136,7 @@
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>826</v>
       </c>
@@ -15152,7 +15150,7 @@
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>829</v>
       </c>
@@ -15166,7 +15164,7 @@
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>832</v>
       </c>
@@ -15180,7 +15178,7 @@
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>835</v>
       </c>
@@ -15194,7 +15192,7 @@
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>838</v>
       </c>
@@ -15211,7 +15209,7 @@
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>841</v>
       </c>
@@ -15228,7 +15226,7 @@
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>844</v>
       </c>
@@ -15242,7 +15240,7 @@
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>847</v>
       </c>
@@ -15259,7 +15257,7 @@
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>850</v>
       </c>
@@ -15273,7 +15271,7 @@
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>853</v>
       </c>
@@ -15287,7 +15285,7 @@
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>856</v>
       </c>
@@ -15301,7 +15299,7 @@
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>859</v>
       </c>
@@ -15315,7 +15313,7 @@
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>862</v>
       </c>
@@ -15329,7 +15327,7 @@
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>865</v>
       </c>
@@ -15343,7 +15341,7 @@
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>868</v>
       </c>
@@ -15357,7 +15355,7 @@
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>871</v>
       </c>
@@ -15371,7 +15369,7 @@
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>874</v>
       </c>
@@ -15385,7 +15383,7 @@
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>877</v>
       </c>
@@ -15402,7 +15400,7 @@
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>880</v>
       </c>
@@ -15416,7 +15414,7 @@
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>883</v>
       </c>
@@ -15430,7 +15428,7 @@
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>886</v>
       </c>
@@ -15444,7 +15442,7 @@
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>889</v>
       </c>
@@ -15458,7 +15456,7 @@
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>892</v>
       </c>
@@ -15472,7 +15470,7 @@
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>895</v>
       </c>
@@ -15489,7 +15487,7 @@
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>898</v>
       </c>
@@ -15503,7 +15501,7 @@
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>901</v>
       </c>
@@ -15517,7 +15515,7 @@
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>904</v>
       </c>
@@ -15531,7 +15529,7 @@
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>907</v>
       </c>
@@ -15545,7 +15543,7 @@
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>910</v>
       </c>
@@ -15559,7 +15557,7 @@
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>913</v>
       </c>
@@ -15573,7 +15571,7 @@
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>916</v>
       </c>
@@ -15589,7 +15587,7 @@
       </c>
       <c r="G308" s="2"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>919</v>
       </c>
@@ -15603,7 +15601,7 @@
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>922</v>
       </c>
@@ -15616,11 +15614,8 @@
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
-      <c r="H310" t="s">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>925</v>
       </c>
@@ -15634,7 +15629,7 @@
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>928</v>
       </c>
@@ -15648,7 +15643,7 @@
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>931</v>
       </c>
@@ -15662,7 +15657,7 @@
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>934</v>
       </c>
@@ -15676,7 +15671,7 @@
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>937</v>
       </c>
@@ -15688,11 +15683,11 @@
       </c>
       <c r="E315" s="2"/>
       <c r="F315" s="2" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="G315" s="2"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>940</v>
       </c>
@@ -15706,7 +15701,7 @@
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>943</v>
       </c>
@@ -15720,7 +15715,7 @@
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>946</v>
       </c>
@@ -15734,7 +15729,7 @@
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>949</v>
       </c>
@@ -15748,7 +15743,7 @@
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>952</v>
       </c>
@@ -15762,7 +15757,7 @@
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>955</v>
       </c>
@@ -15776,7 +15771,7 @@
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>958</v>
       </c>
@@ -15790,7 +15785,7 @@
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>961</v>
       </c>
@@ -15804,7 +15799,7 @@
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>964</v>
       </c>
@@ -15818,7 +15813,7 @@
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>967</v>
       </c>
@@ -15832,7 +15827,7 @@
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>970</v>
       </c>
@@ -15846,7 +15841,7 @@
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>973</v>
       </c>
@@ -15860,7 +15855,7 @@
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>976</v>
       </c>
@@ -15874,7 +15869,7 @@
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>979</v>
       </c>
@@ -15888,7 +15883,7 @@
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>981</v>
       </c>
@@ -15902,7 +15897,7 @@
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>984</v>
       </c>
@@ -15916,7 +15911,7 @@
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>987</v>
       </c>
@@ -15947,7 +15942,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>993</v>
       </c>
@@ -15961,7 +15956,7 @@
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>996</v>
       </c>
@@ -15975,7 +15970,7 @@
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>999</v>
       </c>
@@ -15989,7 +15984,7 @@
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>1002</v>
       </c>
@@ -16003,7 +15998,7 @@
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>1005</v>
       </c>
@@ -16017,7 +16012,7 @@
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>1008</v>
       </c>
@@ -16031,7 +16026,7 @@
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>1011</v>
       </c>
@@ -16045,7 +16040,7 @@
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>1014</v>
       </c>
@@ -16059,7 +16054,7 @@
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>1017</v>
       </c>
@@ -16073,7 +16068,7 @@
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>1020</v>
       </c>
@@ -16084,7 +16079,7 @@
         <v>1022</v>
       </c>
       <c r="D343" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
@@ -16104,10 +16099,10 @@
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
       <c r="H344" t="s">
-        <v>2988</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>1026</v>
       </c>
@@ -16121,7 +16116,7 @@
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>1029</v>
       </c>
@@ -16135,7 +16130,7 @@
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>1032</v>
       </c>
@@ -16167,7 +16162,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>1038</v>
       </c>
@@ -16181,7 +16176,7 @@
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
     </row>
-    <row r="350" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>1040</v>
       </c>
@@ -16195,7 +16190,7 @@
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
     </row>
-    <row r="351" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>1043</v>
       </c>
@@ -16209,7 +16204,7 @@
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
     </row>
-    <row r="352" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>1045</v>
       </c>
@@ -16223,7 +16218,7 @@
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
       <c r="H352" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
@@ -16243,7 +16238,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>1051</v>
       </c>
@@ -16257,7 +16252,7 @@
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>1054</v>
       </c>
@@ -16271,7 +16266,7 @@
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>1057</v>
       </c>
@@ -16285,7 +16280,7 @@
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>1060</v>
       </c>
@@ -16316,10 +16311,10 @@
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
       <c r="H358" t="s">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>1065</v>
       </c>
@@ -16333,7 +16328,7 @@
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>1068</v>
       </c>
@@ -16347,7 +16342,7 @@
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>1071</v>
       </c>
@@ -16361,7 +16356,7 @@
       <c r="F361" s="2"/>
       <c r="G361" s="2"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>1074</v>
       </c>
@@ -16375,7 +16370,7 @@
       <c r="F362" s="2"/>
       <c r="G362" s="2"/>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>1077</v>
       </c>
@@ -16389,7 +16384,7 @@
       <c r="F363" s="2"/>
       <c r="G363" s="2"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>1080</v>
       </c>
@@ -16403,7 +16398,7 @@
       <c r="F364" s="2"/>
       <c r="G364" s="2"/>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>1083</v>
       </c>
@@ -16414,7 +16409,7 @@
         <v>1085</v>
       </c>
       <c r="D365" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
@@ -16434,10 +16429,10 @@
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
       <c r="H366" t="s">
-        <v>2992</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>1089</v>
       </c>
@@ -16468,7 +16463,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>1094</v>
       </c>
@@ -16482,7 +16477,7 @@
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>1097</v>
       </c>
@@ -16496,7 +16491,7 @@
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>1100</v>
       </c>
@@ -16510,7 +16505,7 @@
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>1103</v>
       </c>
@@ -16524,7 +16519,7 @@
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>1106</v>
       </c>
@@ -16535,13 +16530,13 @@
         <v>1108</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>1109</v>
       </c>
@@ -16555,7 +16550,7 @@
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>1112</v>
       </c>
@@ -16569,7 +16564,7 @@
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>1115</v>
       </c>
@@ -16583,7 +16578,7 @@
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>1118</v>
       </c>
@@ -16597,7 +16592,7 @@
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>1121</v>
       </c>
@@ -16611,7 +16606,7 @@
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>1124</v>
       </c>
@@ -16642,7 +16637,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>1130</v>
       </c>
@@ -16656,7 +16651,7 @@
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>1133</v>
       </c>
@@ -16673,7 +16668,7 @@
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>1136</v>
       </c>
@@ -16687,7 +16682,7 @@
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>1139</v>
       </c>
@@ -16701,7 +16696,7 @@
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>1142</v>
       </c>
@@ -16715,7 +16710,7 @@
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>1145</v>
       </c>
@@ -16749,7 +16744,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>1151</v>
       </c>
@@ -16760,13 +16755,13 @@
         <v>1153</v>
       </c>
       <c r="D388" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>1154</v>
       </c>
@@ -16780,7 +16775,7 @@
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
     </row>
-    <row r="390" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>1157</v>
       </c>
@@ -16795,7 +16790,7 @@
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>1160</v>
       </c>
@@ -16809,7 +16804,7 @@
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>1163</v>
       </c>
@@ -16823,7 +16818,7 @@
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>1166</v>
       </c>
@@ -16837,7 +16832,7 @@
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>1169</v>
       </c>
@@ -16851,7 +16846,7 @@
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>1172</v>
       </c>
@@ -16865,7 +16860,7 @@
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>1175</v>
       </c>
@@ -16879,7 +16874,7 @@
       <c r="F396" s="2"/>
       <c r="G396" s="2"/>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>1178</v>
       </c>
@@ -16893,7 +16888,7 @@
       <c r="F397" s="2"/>
       <c r="G397" s="2"/>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>1181</v>
       </c>
@@ -16907,7 +16902,7 @@
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>1184</v>
       </c>
@@ -16921,7 +16916,7 @@
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>1187</v>
       </c>
@@ -16935,7 +16930,7 @@
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>1190</v>
       </c>
@@ -16949,7 +16944,7 @@
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>1193</v>
       </c>
@@ -16963,7 +16958,7 @@
       <c r="F402" s="2"/>
       <c r="G402" s="2"/>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>1196</v>
       </c>
@@ -17015,7 +17010,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>1205</v>
       </c>
@@ -17029,7 +17024,7 @@
       <c r="F406" s="2"/>
       <c r="G406" s="2"/>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>1208</v>
       </c>
@@ -17043,7 +17038,7 @@
       <c r="F407" s="2"/>
       <c r="G407" s="2"/>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>1211</v>
       </c>
@@ -17057,7 +17052,7 @@
       <c r="F408" s="2"/>
       <c r="G408" s="2"/>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>1214</v>
       </c>
@@ -17071,7 +17066,7 @@
       <c r="F409" s="2"/>
       <c r="G409" s="2"/>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>1217</v>
       </c>
@@ -17088,7 +17083,7 @@
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>1220</v>
       </c>
@@ -17102,7 +17097,7 @@
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>1223</v>
       </c>
@@ -17116,7 +17111,7 @@
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>1226</v>
       </c>
@@ -17130,7 +17125,7 @@
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>1229</v>
       </c>
@@ -17144,7 +17139,7 @@
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>1232</v>
       </c>
@@ -17158,7 +17153,7 @@
       <c r="F415" s="2"/>
       <c r="G415" s="2"/>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>1235</v>
       </c>
@@ -17206,7 +17201,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>1243</v>
       </c>
@@ -17223,7 +17218,7 @@
       <c r="F419" s="2"/>
       <c r="G419" s="2"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>1246</v>
       </c>
@@ -17237,7 +17232,7 @@
       <c r="F420" s="2"/>
       <c r="G420" s="2"/>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>1249</v>
       </c>
@@ -17251,7 +17246,7 @@
       <c r="F421" s="2"/>
       <c r="G421" s="2"/>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>1252</v>
       </c>
@@ -17265,7 +17260,7 @@
       <c r="F422" s="2"/>
       <c r="G422" s="2"/>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>1255</v>
       </c>
@@ -17279,7 +17274,7 @@
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>1258</v>
       </c>
@@ -17293,7 +17288,7 @@
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>1261</v>
       </c>
@@ -17307,7 +17302,7 @@
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>1264</v>
       </c>
@@ -17321,7 +17316,7 @@
       <c r="F426" s="2"/>
       <c r="G426" s="2"/>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>1267</v>
       </c>
@@ -17346,7 +17341,7 @@
         <v>1272</v>
       </c>
       <c r="D428" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
@@ -17355,7 +17350,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>1273</v>
       </c>
@@ -17369,7 +17364,7 @@
       <c r="F429" s="2"/>
       <c r="G429" s="2"/>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>1276</v>
       </c>
@@ -17383,7 +17378,7 @@
       <c r="F430" s="2"/>
       <c r="G430" s="2"/>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>1279</v>
       </c>
@@ -17397,7 +17392,7 @@
       <c r="F431" s="2"/>
       <c r="G431" s="2"/>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>1282</v>
       </c>
@@ -17411,7 +17406,7 @@
       <c r="F432" s="2"/>
       <c r="G432" s="2"/>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>1285</v>
       </c>
@@ -17425,7 +17420,7 @@
       <c r="F433" s="2"/>
       <c r="G433" s="2"/>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>1288</v>
       </c>
@@ -17439,7 +17434,7 @@
       <c r="F434" s="2"/>
       <c r="G434" s="2"/>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>1291</v>
       </c>
@@ -17453,7 +17448,7 @@
       <c r="F435" s="2"/>
       <c r="G435" s="2"/>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>1294</v>
       </c>
@@ -17467,7 +17462,7 @@
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>1297</v>
       </c>
@@ -17481,7 +17476,7 @@
       <c r="F437" s="2"/>
       <c r="G437" s="2"/>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>1300</v>
       </c>
@@ -17495,7 +17490,7 @@
       <c r="F438" s="2"/>
       <c r="G438" s="2"/>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>1303</v>
       </c>
@@ -17509,7 +17504,7 @@
       <c r="F439" s="2"/>
       <c r="G439" s="2"/>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>1306</v>
       </c>
@@ -17523,7 +17518,7 @@
       <c r="F440" s="2"/>
       <c r="G440" s="2"/>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>1309</v>
       </c>
@@ -17537,7 +17532,7 @@
       <c r="F441" s="2"/>
       <c r="G441" s="2"/>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>1312</v>
       </c>
@@ -17551,7 +17546,7 @@
       <c r="F442" s="2"/>
       <c r="G442" s="2"/>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>1315</v>
       </c>
@@ -17565,7 +17560,7 @@
       <c r="F443" s="2"/>
       <c r="G443" s="2"/>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>1318</v>
       </c>
@@ -17579,7 +17574,7 @@
       <c r="F444" s="2"/>
       <c r="G444" s="2"/>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>1321</v>
       </c>
@@ -17610,7 +17605,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>1327</v>
       </c>
@@ -17624,7 +17619,7 @@
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>1330</v>
       </c>
@@ -17638,7 +17633,7 @@
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>1333</v>
       </c>
@@ -17652,7 +17647,7 @@
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>1336</v>
       </c>
@@ -17663,13 +17658,13 @@
         <v>1338</v>
       </c>
       <c r="D450" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
       <c r="G450" s="2"/>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>1339</v>
       </c>
@@ -17683,7 +17678,7 @@
       <c r="F451" s="2"/>
       <c r="G451" s="2"/>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>1342</v>
       </c>
@@ -17697,7 +17692,7 @@
       <c r="F452" s="2"/>
       <c r="G452" s="2"/>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>1345</v>
       </c>
@@ -17711,7 +17706,7 @@
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>1348</v>
       </c>
@@ -17725,7 +17720,7 @@
       <c r="F454" s="2"/>
       <c r="G454" s="2"/>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>1351</v>
       </c>
@@ -17739,7 +17734,7 @@
       <c r="F455" s="2"/>
       <c r="G455" s="2"/>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>1354</v>
       </c>
@@ -17770,7 +17765,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>1360</v>
       </c>
@@ -17784,7 +17779,7 @@
       <c r="F458" s="2"/>
       <c r="G458" s="2"/>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>1363</v>
       </c>
@@ -17798,7 +17793,7 @@
       <c r="F459" s="2"/>
       <c r="G459" s="2"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>1366</v>
       </c>
@@ -17812,7 +17807,7 @@
       <c r="F460" s="2"/>
       <c r="G460" s="2"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>1369</v>
       </c>
@@ -17826,7 +17821,7 @@
       <c r="F461" s="2"/>
       <c r="G461" s="2"/>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>1372</v>
       </c>
@@ -17840,7 +17835,7 @@
       <c r="F462" s="2"/>
       <c r="G462" s="2"/>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>1375</v>
       </c>
@@ -17854,7 +17849,7 @@
       <c r="F463" s="2"/>
       <c r="G463" s="2"/>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>1378</v>
       </c>
@@ -17868,7 +17863,7 @@
       <c r="F464" s="2"/>
       <c r="G464" s="2"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>1381</v>
       </c>
@@ -17882,7 +17877,7 @@
       <c r="F465" s="2"/>
       <c r="G465" s="2"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>1384</v>
       </c>
@@ -17896,7 +17891,7 @@
       <c r="F466" s="2"/>
       <c r="G466" s="2"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>1387</v>
       </c>
@@ -17910,7 +17905,7 @@
       <c r="F467" s="2"/>
       <c r="G467" s="2"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>1390</v>
       </c>
@@ -17924,7 +17919,7 @@
       <c r="F468" s="2"/>
       <c r="G468" s="2"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>1393</v>
       </c>
@@ -17938,7 +17933,7 @@
       <c r="F469" s="2"/>
       <c r="G469" s="2"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>1396</v>
       </c>
@@ -17952,7 +17947,7 @@
       <c r="F470" s="2"/>
       <c r="G470" s="2"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>1399</v>
       </c>
@@ -17966,7 +17961,7 @@
       <c r="F471" s="2"/>
       <c r="G471" s="2"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>1402</v>
       </c>
@@ -17980,7 +17975,7 @@
       <c r="F472" s="2"/>
       <c r="G472" s="2"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>1405</v>
       </c>
@@ -17994,7 +17989,7 @@
       <c r="F473" s="2"/>
       <c r="G473" s="2"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>1408</v>
       </c>
@@ -18008,7 +18003,7 @@
       <c r="F474" s="2"/>
       <c r="G474" s="2"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>1411</v>
       </c>
@@ -18022,7 +18017,7 @@
       <c r="F475" s="2"/>
       <c r="G475" s="2"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>1414</v>
       </c>
@@ -18036,7 +18031,7 @@
       <c r="F476" s="2"/>
       <c r="G476" s="2"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>1417</v>
       </c>
@@ -18050,7 +18045,7 @@
       <c r="F477" s="2"/>
       <c r="G477" s="2"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>1420</v>
       </c>
@@ -18064,7 +18059,7 @@
       <c r="F478" s="2"/>
       <c r="G478" s="2"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>1423</v>
       </c>
@@ -18078,7 +18073,7 @@
       <c r="F479" s="2"/>
       <c r="G479" s="2"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>1426</v>
       </c>
@@ -18092,7 +18087,7 @@
       <c r="F480" s="2"/>
       <c r="G480" s="2"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>1429</v>
       </c>
@@ -18106,7 +18101,7 @@
       <c r="F481" s="2"/>
       <c r="G481" s="2"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>1432</v>
       </c>
@@ -18120,7 +18115,7 @@
       <c r="F482" s="2"/>
       <c r="G482" s="2"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>1435</v>
       </c>
@@ -18134,7 +18129,7 @@
       <c r="F483" s="2"/>
       <c r="G483" s="2"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>1437</v>
       </c>
@@ -18148,7 +18143,7 @@
       <c r="F484" s="2"/>
       <c r="G484" s="2"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>1440</v>
       </c>
@@ -18162,7 +18157,7 @@
       <c r="F485" s="2"/>
       <c r="G485" s="2"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>1443</v>
       </c>
@@ -18176,7 +18171,7 @@
       <c r="F486" s="2"/>
       <c r="G486" s="2"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>1446</v>
       </c>
@@ -18190,7 +18185,7 @@
       <c r="F487" s="2"/>
       <c r="G487" s="2"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>1449</v>
       </c>
@@ -18204,7 +18199,7 @@
       <c r="F488" s="2"/>
       <c r="G488" s="2"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>1452</v>
       </c>
@@ -18218,7 +18213,7 @@
       <c r="F489" s="2"/>
       <c r="G489" s="2"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>1455</v>
       </c>
@@ -18232,7 +18227,7 @@
       <c r="F490" s="2"/>
       <c r="G490" s="2"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>1458</v>
       </c>
@@ -18246,7 +18241,7 @@
       <c r="F491" s="2"/>
       <c r="G491" s="2"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>1461</v>
       </c>
@@ -18260,7 +18255,7 @@
       <c r="F492" s="2"/>
       <c r="G492" s="2"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>1464</v>
       </c>
@@ -18274,7 +18269,7 @@
       <c r="F493" s="2"/>
       <c r="G493" s="2"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>1467</v>
       </c>
@@ -18288,7 +18283,7 @@
       <c r="F494" s="2"/>
       <c r="G494" s="2"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>1470</v>
       </c>
@@ -18302,7 +18297,7 @@
       <c r="F495" s="2"/>
       <c r="G495" s="2"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>1473</v>
       </c>
@@ -18316,7 +18311,7 @@
       <c r="F496" s="2"/>
       <c r="G496" s="2"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>1476</v>
       </c>
@@ -18330,7 +18325,7 @@
       <c r="F497" s="2"/>
       <c r="G497" s="2"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>1479</v>
       </c>
@@ -18344,7 +18339,7 @@
       <c r="F498" s="2"/>
       <c r="G498" s="2"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>1482</v>
       </c>
@@ -18358,7 +18353,7 @@
       <c r="F499" s="2"/>
       <c r="G499" s="2"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>1485</v>
       </c>
@@ -18372,7 +18367,7 @@
       <c r="F500" s="2"/>
       <c r="G500" s="2"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>1488</v>
       </c>
@@ -18386,7 +18381,7 @@
       <c r="F501" s="2"/>
       <c r="G501" s="2"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>1491</v>
       </c>
@@ -18400,7 +18395,7 @@
       <c r="F502" s="2"/>
       <c r="G502" s="2"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>1494</v>
       </c>
@@ -18414,7 +18409,7 @@
       <c r="F503" s="2"/>
       <c r="G503" s="2"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>1497</v>
       </c>
@@ -18428,7 +18423,7 @@
       <c r="F504" s="2"/>
       <c r="G504" s="2"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>1500</v>
       </c>
@@ -18442,7 +18437,7 @@
       <c r="F505" s="2"/>
       <c r="G505" s="2"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>1503</v>
       </c>
@@ -18456,7 +18451,7 @@
       <c r="F506" s="2"/>
       <c r="G506" s="2"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>1506</v>
       </c>
@@ -18470,7 +18465,7 @@
       <c r="F507" s="2"/>
       <c r="G507" s="2"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>1509</v>
       </c>
@@ -18484,7 +18479,7 @@
       <c r="F508" s="2"/>
       <c r="G508" s="2"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>1512</v>
       </c>
@@ -18498,7 +18493,7 @@
       <c r="F509" s="2"/>
       <c r="G509" s="2"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>1515</v>
       </c>
@@ -18512,7 +18507,7 @@
       <c r="F510" s="2"/>
       <c r="G510" s="2"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>1518</v>
       </c>
@@ -18526,7 +18521,7 @@
       <c r="F511" s="2"/>
       <c r="G511" s="2"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>1521</v>
       </c>
@@ -18540,7 +18535,7 @@
       <c r="F512" s="2"/>
       <c r="G512" s="2"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>1524</v>
       </c>
@@ -18554,7 +18549,7 @@
       <c r="F513" s="2"/>
       <c r="G513" s="2"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>1527</v>
       </c>
@@ -18568,7 +18563,7 @@
       <c r="F514" s="2"/>
       <c r="G514" s="2"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>1530</v>
       </c>
@@ -18582,7 +18577,7 @@
       <c r="F515" s="2"/>
       <c r="G515" s="2"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>1533</v>
       </c>
@@ -18596,7 +18591,7 @@
       <c r="F516" s="2"/>
       <c r="G516" s="2"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>1536</v>
       </c>
@@ -18610,7 +18605,7 @@
       <c r="F517" s="2"/>
       <c r="G517" s="2"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>1539</v>
       </c>
@@ -18624,7 +18619,7 @@
       <c r="F518" s="2"/>
       <c r="G518" s="2"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>1542</v>
       </c>
@@ -18638,7 +18633,7 @@
       <c r="F519" s="2"/>
       <c r="G519" s="2"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>1545</v>
       </c>
@@ -18652,7 +18647,7 @@
       <c r="F520" s="2"/>
       <c r="G520" s="2"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>1548</v>
       </c>
@@ -18663,13 +18658,13 @@
         <v>1550</v>
       </c>
       <c r="D521" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
       <c r="G521" s="2"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>1551</v>
       </c>
@@ -18683,7 +18678,7 @@
       <c r="F522" s="2"/>
       <c r="G522" s="2"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>1554</v>
       </c>
@@ -18697,7 +18692,7 @@
       <c r="F523" s="2"/>
       <c r="G523" s="2"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>1557</v>
       </c>
@@ -18711,7 +18706,7 @@
       <c r="F524" s="2"/>
       <c r="G524" s="2"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>1560</v>
       </c>
@@ -18725,7 +18720,7 @@
       <c r="F525" s="2"/>
       <c r="G525" s="2"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>1563</v>
       </c>
@@ -18739,7 +18734,7 @@
       <c r="F526" s="2"/>
       <c r="G526" s="2"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>1566</v>
       </c>
@@ -18753,7 +18748,7 @@
       <c r="F527" s="2"/>
       <c r="G527" s="2"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>1569</v>
       </c>
@@ -18767,7 +18762,7 @@
       <c r="F528" s="2"/>
       <c r="G528" s="2"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>1572</v>
       </c>
@@ -18781,7 +18776,7 @@
       <c r="F529" s="2"/>
       <c r="G529" s="2"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>1575</v>
       </c>
@@ -18795,7 +18790,7 @@
       <c r="F530" s="2"/>
       <c r="G530" s="2"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>1578</v>
       </c>
@@ -18809,7 +18804,7 @@
       <c r="F531" s="2"/>
       <c r="G531" s="2"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>1581</v>
       </c>
@@ -18823,7 +18818,7 @@
       <c r="F532" s="2"/>
       <c r="G532" s="2"/>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>1584</v>
       </c>
@@ -18837,7 +18832,7 @@
       <c r="F533" s="2"/>
       <c r="G533" s="2"/>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>1587</v>
       </c>
@@ -18851,7 +18846,7 @@
       <c r="F534" s="2"/>
       <c r="G534" s="2"/>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>1590</v>
       </c>
@@ -18865,7 +18860,7 @@
       <c r="F535" s="2"/>
       <c r="G535" s="2"/>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>1593</v>
       </c>
@@ -18879,7 +18874,7 @@
       <c r="F536" s="2"/>
       <c r="G536" s="2"/>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>1596</v>
       </c>
@@ -18893,7 +18888,7 @@
       <c r="F537" s="2"/>
       <c r="G537" s="2"/>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>1599</v>
       </c>
@@ -18907,7 +18902,7 @@
       <c r="F538" s="2"/>
       <c r="G538" s="2"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>1602</v>
       </c>
@@ -18918,13 +18913,13 @@
         <v>1604</v>
       </c>
       <c r="D539" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
       <c r="G539" s="2"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>1605</v>
       </c>
@@ -18938,7 +18933,7 @@
       <c r="F540" s="2"/>
       <c r="G540" s="2"/>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>1608</v>
       </c>
@@ -18952,7 +18947,7 @@
       <c r="F541" s="2"/>
       <c r="G541" s="2"/>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>1611</v>
       </c>
@@ -18966,7 +18961,7 @@
       <c r="F542" s="2"/>
       <c r="G542" s="2"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>1614</v>
       </c>
@@ -18980,7 +18975,7 @@
       <c r="F543" s="2"/>
       <c r="G543" s="2"/>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>1617</v>
       </c>
@@ -18994,7 +18989,7 @@
       <c r="F544" s="2"/>
       <c r="G544" s="2"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>1620</v>
       </c>
@@ -19008,7 +19003,7 @@
       <c r="F545" s="2"/>
       <c r="G545" s="2"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>1623</v>
       </c>
@@ -19022,7 +19017,7 @@
       <c r="F546" s="2"/>
       <c r="G546" s="2"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>1626</v>
       </c>
@@ -19036,7 +19031,7 @@
       <c r="F547" s="2"/>
       <c r="G547" s="2"/>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>1629</v>
       </c>
@@ -19050,7 +19045,7 @@
       <c r="F548" s="2"/>
       <c r="G548" s="2"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>1632</v>
       </c>
@@ -19064,7 +19059,7 @@
       <c r="F549" s="2"/>
       <c r="G549" s="2"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>1635</v>
       </c>
@@ -19078,7 +19073,7 @@
       <c r="F550" s="2"/>
       <c r="G550" s="2"/>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>1638</v>
       </c>
@@ -19092,7 +19087,7 @@
       <c r="F551" s="2"/>
       <c r="G551" s="2"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>1641</v>
       </c>
@@ -19106,7 +19101,7 @@
       <c r="F552" s="2"/>
       <c r="G552" s="2"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>1644</v>
       </c>
@@ -19120,7 +19115,7 @@
       <c r="F553" s="2"/>
       <c r="G553" s="2"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>1647</v>
       </c>
@@ -19134,7 +19129,7 @@
       <c r="F554" s="2"/>
       <c r="G554" s="2"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>1650</v>
       </c>
@@ -19148,7 +19143,7 @@
       <c r="F555" s="2"/>
       <c r="G555" s="2"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>1653</v>
       </c>
@@ -19162,7 +19157,7 @@
       <c r="F556" s="2"/>
       <c r="G556" s="2"/>
     </row>
-    <row r="557" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>1656</v>
       </c>
@@ -19173,13 +19168,13 @@
         <v>1658</v>
       </c>
       <c r="D557" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
       <c r="G557" s="2"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>1659</v>
       </c>
@@ -19193,7 +19188,7 @@
       <c r="F558" s="2"/>
       <c r="G558" s="2"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>1662</v>
       </c>
@@ -19207,7 +19202,7 @@
       <c r="F559" s="2"/>
       <c r="G559" s="2"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>1665</v>
       </c>
@@ -19221,7 +19216,7 @@
       <c r="F560" s="2"/>
       <c r="G560" s="2"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>1668</v>
       </c>
@@ -19236,7 +19231,7 @@
       <c r="F561" s="2"/>
       <c r="G561" s="2"/>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>1671</v>
       </c>
@@ -19250,7 +19245,7 @@
       <c r="F562" s="2"/>
       <c r="G562" s="2"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>1674</v>
       </c>
@@ -19264,7 +19259,7 @@
       <c r="F563" s="2"/>
       <c r="G563" s="2"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>1677</v>
       </c>
@@ -19278,7 +19273,7 @@
       <c r="F564" s="2"/>
       <c r="G564" s="2"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>1680</v>
       </c>
@@ -19292,7 +19287,7 @@
       <c r="F565" s="2"/>
       <c r="G565" s="2"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>1683</v>
       </c>
@@ -19306,7 +19301,7 @@
       <c r="F566" s="2"/>
       <c r="G566" s="2"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>1686</v>
       </c>
@@ -19320,7 +19315,7 @@
       <c r="F567" s="2"/>
       <c r="G567" s="2"/>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>1689</v>
       </c>
@@ -19334,7 +19329,7 @@
       <c r="F568" s="2"/>
       <c r="G568" s="2"/>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>1692</v>
       </c>
@@ -19348,7 +19343,7 @@
       <c r="F569" s="2"/>
       <c r="G569" s="2"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>1695</v>
       </c>
@@ -19362,7 +19357,7 @@
       <c r="F570" s="2"/>
       <c r="G570" s="2"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>1698</v>
       </c>
@@ -19376,7 +19371,7 @@
       <c r="F571" s="2"/>
       <c r="G571" s="2"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>1701</v>
       </c>
@@ -19390,7 +19385,7 @@
       <c r="F572" s="2"/>
       <c r="G572" s="2"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>1704</v>
       </c>
@@ -19404,7 +19399,7 @@
       <c r="F573" s="2"/>
       <c r="G573" s="2"/>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>1707</v>
       </c>
@@ -19418,7 +19413,7 @@
       <c r="F574" s="2"/>
       <c r="G574" s="2"/>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>1710</v>
       </c>
@@ -19432,7 +19427,7 @@
       <c r="F575" s="2"/>
       <c r="G575" s="2"/>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>1713</v>
       </c>
@@ -19446,7 +19441,7 @@
       <c r="F576" s="2"/>
       <c r="G576" s="2"/>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>1716</v>
       </c>
@@ -19460,7 +19455,7 @@
       <c r="F577" s="2"/>
       <c r="G577" s="2"/>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>1719</v>
       </c>
@@ -19474,7 +19469,7 @@
       <c r="F578" s="2"/>
       <c r="G578" s="2"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>1722</v>
       </c>
@@ -19488,7 +19483,7 @@
       <c r="F579" s="2"/>
       <c r="G579" s="2"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>1725</v>
       </c>
@@ -19499,13 +19494,13 @@
         <v>1727</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="E580" s="2"/>
       <c r="F580" s="2"/>
       <c r="G580" s="2"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>1728</v>
       </c>
@@ -19519,7 +19514,7 @@
       <c r="F581" s="2"/>
       <c r="G581" s="2"/>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>1731</v>
       </c>
@@ -19533,7 +19528,7 @@
       <c r="F582" s="2"/>
       <c r="G582" s="2"/>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>1734</v>
       </c>
@@ -19547,7 +19542,7 @@
       <c r="F583" s="2"/>
       <c r="G583" s="2"/>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>1737</v>
       </c>
@@ -19561,7 +19556,7 @@
       <c r="F584" s="2"/>
       <c r="G584" s="2"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>1740</v>
       </c>
@@ -19575,7 +19570,7 @@
       <c r="F585" s="2"/>
       <c r="G585" s="2"/>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>1743</v>
       </c>
@@ -19589,7 +19584,7 @@
       <c r="F586" s="2"/>
       <c r="G586" s="2"/>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>1746</v>
       </c>
@@ -19603,7 +19598,7 @@
       <c r="F587" s="2"/>
       <c r="G587" s="2"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>1749</v>
       </c>
@@ -19617,7 +19612,7 @@
       <c r="F588" s="2"/>
       <c r="G588" s="2"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>1752</v>
       </c>
@@ -19631,7 +19626,7 @@
       <c r="F589" s="2"/>
       <c r="G589" s="2"/>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>1755</v>
       </c>
@@ -19645,7 +19640,7 @@
       <c r="F590" s="2"/>
       <c r="G590" s="2"/>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>1758</v>
       </c>
@@ -19659,7 +19654,7 @@
       <c r="F591" s="2"/>
       <c r="G591" s="2"/>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>1761</v>
       </c>
@@ -19673,7 +19668,7 @@
       <c r="F592" s="2"/>
       <c r="G592" s="2"/>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>1764</v>
       </c>
@@ -19687,7 +19682,7 @@
       <c r="F593" s="2"/>
       <c r="G593" s="2"/>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>1767</v>
       </c>
@@ -19701,7 +19696,7 @@
       <c r="F594" s="2"/>
       <c r="G594" s="2"/>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>1770</v>
       </c>
@@ -19715,7 +19710,7 @@
       <c r="F595" s="2"/>
       <c r="G595" s="2"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>1773</v>
       </c>
@@ -19729,7 +19724,7 @@
       <c r="F596" s="2"/>
       <c r="G596" s="2"/>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>1776</v>
       </c>
@@ -19743,7 +19738,7 @@
       <c r="F597" s="2"/>
       <c r="G597" s="2"/>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>1779</v>
       </c>
@@ -19757,7 +19752,7 @@
       <c r="F598" s="2"/>
       <c r="G598" s="2"/>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>1782</v>
       </c>
@@ -19771,7 +19766,7 @@
       <c r="F599" s="2"/>
       <c r="G599" s="2"/>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>1785</v>
       </c>
@@ -19785,7 +19780,7 @@
       <c r="F600" s="2"/>
       <c r="G600" s="2"/>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>1788</v>
       </c>
@@ -19799,7 +19794,7 @@
       <c r="F601" s="2"/>
       <c r="G601" s="2"/>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>1791</v>
       </c>
@@ -19813,7 +19808,7 @@
       <c r="F602" s="2"/>
       <c r="G602" s="2"/>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>1794</v>
       </c>
@@ -19827,7 +19822,7 @@
       <c r="F603" s="2"/>
       <c r="G603" s="2"/>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
         <v>1797</v>
       </c>
@@ -19841,7 +19836,7 @@
       <c r="F604" s="2"/>
       <c r="G604" s="2"/>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
         <v>1800</v>
       </c>
@@ -19855,7 +19850,7 @@
       <c r="F605" s="2"/>
       <c r="G605" s="2"/>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
         <v>1803</v>
       </c>
@@ -19869,7 +19864,7 @@
       <c r="F606" s="2"/>
       <c r="G606" s="2"/>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
         <v>1806</v>
       </c>
@@ -19883,7 +19878,7 @@
       <c r="F607" s="2"/>
       <c r="G607" s="2"/>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>1809</v>
       </c>
@@ -19897,7 +19892,7 @@
       <c r="F608" s="2"/>
       <c r="G608" s="2"/>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
         <v>1812</v>
       </c>
@@ -19911,7 +19906,7 @@
       <c r="F609" s="2"/>
       <c r="G609" s="2"/>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
         <v>1815</v>
       </c>
@@ -19925,7 +19920,7 @@
       <c r="F610" s="2"/>
       <c r="G610" s="2"/>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>1818</v>
       </c>
@@ -19936,13 +19931,13 @@
         <v>1820</v>
       </c>
       <c r="D611" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="E611" s="2"/>
       <c r="F611" s="2"/>
       <c r="G611" s="2"/>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
         <v>1821</v>
       </c>
@@ -19956,7 +19951,7 @@
       <c r="F612" s="2"/>
       <c r="G612" s="2"/>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
         <v>1824</v>
       </c>
@@ -19970,7 +19965,7 @@
       <c r="F613" s="2"/>
       <c r="G613" s="2"/>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>1827</v>
       </c>
@@ -19984,7 +19979,7 @@
       <c r="F614" s="2"/>
       <c r="G614" s="2"/>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>1830</v>
       </c>
@@ -19998,7 +19993,7 @@
       <c r="F615" s="2"/>
       <c r="G615" s="2"/>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>1833</v>
       </c>
@@ -20012,7 +20007,7 @@
       <c r="F616" s="2"/>
       <c r="G616" s="2"/>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
         <v>1836</v>
       </c>
@@ -20026,7 +20021,7 @@
       <c r="F617" s="2"/>
       <c r="G617" s="2"/>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
         <v>1839</v>
       </c>
@@ -20040,7 +20035,7 @@
       <c r="F618" s="2"/>
       <c r="G618" s="2"/>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
         <v>1842</v>
       </c>
@@ -20054,7 +20049,7 @@
       <c r="F619" s="2"/>
       <c r="G619" s="2"/>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>1845</v>
       </c>
@@ -20068,7 +20063,7 @@
       <c r="F620" s="2"/>
       <c r="G620" s="2"/>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
         <v>1848</v>
       </c>
@@ -20082,7 +20077,7 @@
       <c r="F621" s="2"/>
       <c r="G621" s="2"/>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
         <v>1851</v>
       </c>
@@ -20096,7 +20091,7 @@
       <c r="F622" s="2"/>
       <c r="G622" s="2"/>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
         <v>1854</v>
       </c>
@@ -20110,7 +20105,7 @@
       <c r="F623" s="2"/>
       <c r="G623" s="2"/>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
         <v>1857</v>
       </c>
@@ -20124,7 +20119,7 @@
       <c r="F624" s="2"/>
       <c r="G624" s="2"/>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
         <v>1860</v>
       </c>
@@ -20138,7 +20133,7 @@
       <c r="F625" s="2"/>
       <c r="G625" s="2"/>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
         <v>1863</v>
       </c>
@@ -20152,7 +20147,7 @@
       <c r="F626" s="2"/>
       <c r="G626" s="2"/>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
         <v>1866</v>
       </c>
@@ -20166,7 +20161,7 @@
       <c r="F627" s="2"/>
       <c r="G627" s="2"/>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
         <v>1869</v>
       </c>
@@ -20180,7 +20175,7 @@
       <c r="F628" s="2"/>
       <c r="G628" s="2"/>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
         <v>1872</v>
       </c>
@@ -20194,7 +20189,7 @@
       <c r="F629" s="2"/>
       <c r="G629" s="2"/>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
         <v>1875</v>
       </c>
@@ -20208,7 +20203,7 @@
       <c r="F630" s="2"/>
       <c r="G630" s="2"/>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
         <v>1878</v>
       </c>
@@ -20222,7 +20217,7 @@
       <c r="F631" s="2"/>
       <c r="G631" s="2"/>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
         <v>1881</v>
       </c>
@@ -20236,7 +20231,7 @@
       <c r="F632" s="2"/>
       <c r="G632" s="2"/>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
         <v>1884</v>
       </c>
@@ -20250,7 +20245,7 @@
       <c r="F633" s="2"/>
       <c r="G633" s="2"/>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
         <v>1887</v>
       </c>
@@ -20264,7 +20259,7 @@
       <c r="F634" s="2"/>
       <c r="G634" s="2"/>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
         <v>1890</v>
       </c>
@@ -20278,7 +20273,7 @@
       <c r="F635" s="2"/>
       <c r="G635" s="2"/>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
         <v>1893</v>
       </c>
@@ -20292,7 +20287,7 @@
       <c r="F636" s="2"/>
       <c r="G636" s="2"/>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>1896</v>
       </c>
@@ -20306,7 +20301,7 @@
       <c r="F637" s="2"/>
       <c r="G637" s="2"/>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
         <v>1899</v>
       </c>
@@ -20320,7 +20315,7 @@
       <c r="F638" s="2"/>
       <c r="G638" s="2"/>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
         <v>1902</v>
       </c>
@@ -20334,7 +20329,7 @@
       <c r="F639" s="2"/>
       <c r="G639" s="2"/>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
         <v>1905</v>
       </c>
@@ -20348,7 +20343,7 @@
       <c r="F640" s="2"/>
       <c r="G640" s="2"/>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
         <v>1908</v>
       </c>
@@ -20362,7 +20357,7 @@
       <c r="F641" s="2"/>
       <c r="G641" s="2"/>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
         <v>1911</v>
       </c>
@@ -20376,7 +20371,7 @@
       <c r="F642" s="2"/>
       <c r="G642" s="2"/>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
         <v>1914</v>
       </c>
@@ -20390,7 +20385,7 @@
       <c r="F643" s="2"/>
       <c r="G643" s="2"/>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
         <v>1917</v>
       </c>
@@ -20404,7 +20399,7 @@
       <c r="F644" s="2"/>
       <c r="G644" s="2"/>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
         <v>1920</v>
       </c>
@@ -20418,7 +20413,7 @@
       <c r="F645" s="2"/>
       <c r="G645" s="2"/>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
         <v>1923</v>
       </c>
@@ -20432,7 +20427,7 @@
       <c r="F646" s="2"/>
       <c r="G646" s="2"/>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
         <v>1926</v>
       </c>
@@ -20446,7 +20441,7 @@
       <c r="F647" s="2"/>
       <c r="G647" s="2"/>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
         <v>1929</v>
       </c>
@@ -20460,7 +20455,7 @@
       <c r="F648" s="2"/>
       <c r="G648" s="2"/>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>1932</v>
       </c>
@@ -20474,7 +20469,7 @@
       <c r="F649" s="2"/>
       <c r="G649" s="2"/>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
         <v>1935</v>
       </c>
@@ -20488,7 +20483,7 @@
       <c r="F650" s="2"/>
       <c r="G650" s="2"/>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
         <v>1938</v>
       </c>
@@ -20502,7 +20497,7 @@
       <c r="F651" s="2"/>
       <c r="G651" s="2"/>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
         <v>1941</v>
       </c>
@@ -20516,7 +20511,7 @@
       <c r="F652" s="2"/>
       <c r="G652" s="2"/>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
         <v>1944</v>
       </c>
@@ -20530,7 +20525,7 @@
       <c r="F653" s="2"/>
       <c r="G653" s="2"/>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
         <v>1947</v>
       </c>
@@ -20544,7 +20539,7 @@
       <c r="F654" s="2"/>
       <c r="G654" s="2"/>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
         <v>1950</v>
       </c>
@@ -20558,7 +20553,7 @@
       <c r="F655" s="2"/>
       <c r="G655" s="2"/>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
         <v>1953</v>
       </c>
@@ -20572,7 +20567,7 @@
       <c r="F656" s="2"/>
       <c r="G656" s="2"/>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
         <v>1956</v>
       </c>
@@ -20586,7 +20581,7 @@
       <c r="F657" s="2"/>
       <c r="G657" s="2"/>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
         <v>1959</v>
       </c>
@@ -20600,7 +20595,7 @@
       <c r="F658" s="2"/>
       <c r="G658" s="2"/>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
         <v>1962</v>
       </c>
@@ -20614,7 +20609,7 @@
       <c r="F659" s="2"/>
       <c r="G659" s="2"/>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
         <v>1965</v>
       </c>
@@ -20628,7 +20623,7 @@
       <c r="F660" s="2"/>
       <c r="G660" s="2"/>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
         <v>1968</v>
       </c>
@@ -20642,7 +20637,7 @@
       <c r="F661" s="2"/>
       <c r="G661" s="2"/>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
         <v>1971</v>
       </c>
@@ -20656,7 +20651,7 @@
       <c r="F662" s="2"/>
       <c r="G662" s="2"/>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
         <v>1974</v>
       </c>
@@ -20670,7 +20665,7 @@
       <c r="F663" s="2"/>
       <c r="G663" s="2"/>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
         <v>1977</v>
       </c>
@@ -20684,7 +20679,7 @@
       <c r="F664" s="2"/>
       <c r="G664" s="2"/>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
         <v>1980</v>
       </c>
@@ -20698,7 +20693,7 @@
       <c r="F665" s="2"/>
       <c r="G665" s="2"/>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
         <v>1983</v>
       </c>
@@ -20712,7 +20707,7 @@
       <c r="F666" s="2"/>
       <c r="G666" s="2"/>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
         <v>1986</v>
       </c>
@@ -20726,7 +20721,7 @@
       <c r="F667" s="2"/>
       <c r="G667" s="2"/>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
         <v>1989</v>
       </c>
@@ -20740,7 +20735,7 @@
       <c r="F668" s="2"/>
       <c r="G668" s="2"/>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
         <v>1992</v>
       </c>
@@ -20754,7 +20749,7 @@
       <c r="F669" s="2"/>
       <c r="G669" s="2"/>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
         <v>1995</v>
       </c>
@@ -20768,7 +20763,7 @@
       <c r="F670" s="2"/>
       <c r="G670" s="2"/>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
         <v>1998</v>
       </c>
@@ -20782,7 +20777,7 @@
       <c r="F671" s="2"/>
       <c r="G671" s="2"/>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
         <v>2001</v>
       </c>
@@ -20796,7 +20791,7 @@
       <c r="F672" s="2"/>
       <c r="G672" s="2"/>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
         <v>2004</v>
       </c>
@@ -20810,7 +20805,7 @@
       <c r="F673" s="2"/>
       <c r="G673" s="2"/>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
         <v>2007</v>
       </c>
@@ -20824,7 +20819,7 @@
       <c r="F674" s="2"/>
       <c r="G674" s="2"/>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
         <v>2010</v>
       </c>
@@ -20838,7 +20833,7 @@
       <c r="F675" s="2"/>
       <c r="G675" s="2"/>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
         <v>2013</v>
       </c>
@@ -20852,7 +20847,7 @@
       <c r="F676" s="2"/>
       <c r="G676" s="2"/>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
         <v>2016</v>
       </c>
@@ -20866,7 +20861,7 @@
       <c r="F677" s="2"/>
       <c r="G677" s="2"/>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
         <v>2019</v>
       </c>
@@ -20880,7 +20875,7 @@
       <c r="F678" s="2"/>
       <c r="G678" s="2"/>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
         <v>2022</v>
       </c>
@@ -20894,7 +20889,7 @@
       <c r="F679" s="2"/>
       <c r="G679" s="2"/>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
         <v>2025</v>
       </c>
@@ -20908,7 +20903,7 @@
       <c r="F680" s="2"/>
       <c r="G680" s="2"/>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
         <v>2028</v>
       </c>
@@ -20922,7 +20917,7 @@
       <c r="F681" s="2"/>
       <c r="G681" s="2"/>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
         <v>2031</v>
       </c>
@@ -20936,7 +20931,7 @@
       <c r="F682" s="2"/>
       <c r="G682" s="2"/>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
         <v>2034</v>
       </c>
@@ -20950,7 +20945,7 @@
       <c r="F683" s="2"/>
       <c r="G683" s="2"/>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
         <v>2037</v>
       </c>
@@ -20964,7 +20959,7 @@
       <c r="F684" s="2"/>
       <c r="G684" s="2"/>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
         <v>2040</v>
       </c>
@@ -20978,7 +20973,7 @@
       <c r="F685" s="2"/>
       <c r="G685" s="2"/>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
         <v>2043</v>
       </c>
@@ -20992,7 +20987,7 @@
       <c r="F686" s="2"/>
       <c r="G686" s="2"/>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
         <v>2046</v>
       </c>
@@ -21006,7 +21001,7 @@
       <c r="F687" s="2"/>
       <c r="G687" s="2"/>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
         <v>2049</v>
       </c>
@@ -21020,7 +21015,7 @@
       <c r="F688" s="2"/>
       <c r="G688" s="2"/>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
         <v>2052</v>
       </c>
@@ -21034,7 +21029,7 @@
       <c r="F689" s="2"/>
       <c r="G689" s="2"/>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
         <v>2055</v>
       </c>
@@ -21048,7 +21043,7 @@
       <c r="F690" s="2"/>
       <c r="G690" s="2"/>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
         <v>2058</v>
       </c>
@@ -21062,7 +21057,7 @@
       <c r="F691" s="2"/>
       <c r="G691" s="2"/>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
         <v>2061</v>
       </c>
@@ -21076,7 +21071,7 @@
       <c r="F692" s="2"/>
       <c r="G692" s="2"/>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
         <v>2064</v>
       </c>
@@ -21090,7 +21085,7 @@
       <c r="F693" s="2"/>
       <c r="G693" s="2"/>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
         <v>2067</v>
       </c>
@@ -21104,7 +21099,7 @@
       <c r="F694" s="2"/>
       <c r="G694" s="2"/>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
         <v>2070</v>
       </c>
@@ -21118,7 +21113,7 @@
       <c r="F695" s="2"/>
       <c r="G695" s="2"/>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
         <v>2073</v>
       </c>
@@ -21132,7 +21127,7 @@
       <c r="F696" s="2"/>
       <c r="G696" s="2"/>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
         <v>2076</v>
       </c>
@@ -21146,7 +21141,7 @@
       <c r="F697" s="2"/>
       <c r="G697" s="2"/>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
         <v>2079</v>
       </c>
@@ -21160,7 +21155,7 @@
       <c r="F698" s="2"/>
       <c r="G698" s="2"/>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
         <v>2082</v>
       </c>
@@ -21174,7 +21169,7 @@
       <c r="F699" s="2"/>
       <c r="G699" s="2"/>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
         <v>2085</v>
       </c>
@@ -21188,7 +21183,7 @@
       <c r="F700" s="2"/>
       <c r="G700" s="2"/>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
         <v>2088</v>
       </c>
@@ -21202,7 +21197,7 @@
       <c r="F701" s="2"/>
       <c r="G701" s="2"/>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
         <v>2091</v>
       </c>
@@ -21216,7 +21211,7 @@
       <c r="F702" s="2"/>
       <c r="G702" s="2"/>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
         <v>2094</v>
       </c>
@@ -21230,7 +21225,7 @@
       <c r="F703" s="2"/>
       <c r="G703" s="2"/>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
         <v>2097</v>
       </c>
@@ -21244,7 +21239,7 @@
       <c r="F704" s="2"/>
       <c r="G704" s="2"/>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
         <v>2100</v>
       </c>
@@ -21258,7 +21253,7 @@
       <c r="F705" s="2"/>
       <c r="G705" s="2"/>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
         <v>2103</v>
       </c>
@@ -21272,7 +21267,7 @@
       <c r="F706" s="2"/>
       <c r="G706" s="2"/>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
         <v>2106</v>
       </c>
@@ -21286,7 +21281,7 @@
       <c r="F707" s="2"/>
       <c r="G707" s="2"/>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
         <v>2109</v>
       </c>
@@ -21300,7 +21295,7 @@
       <c r="F708" s="2"/>
       <c r="G708" s="2"/>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
         <v>2112</v>
       </c>
@@ -21314,7 +21309,7 @@
       <c r="F709" s="2"/>
       <c r="G709" s="2"/>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
         <v>2115</v>
       </c>
@@ -21328,7 +21323,7 @@
       <c r="F710" s="2"/>
       <c r="G710" s="2"/>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="s">
         <v>2118</v>
       </c>
@@ -21342,7 +21337,7 @@
       <c r="F711" s="2"/>
       <c r="G711" s="2"/>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
         <v>2121</v>
       </c>
@@ -21356,7 +21351,7 @@
       <c r="F712" s="2"/>
       <c r="G712" s="2"/>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
         <v>2124</v>
       </c>
@@ -21370,7 +21365,7 @@
       <c r="F713" s="2"/>
       <c r="G713" s="2"/>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
         <v>2127</v>
       </c>
@@ -21384,7 +21379,7 @@
       <c r="F714" s="2"/>
       <c r="G714" s="2"/>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
         <v>2130</v>
       </c>
@@ -21398,7 +21393,7 @@
       <c r="F715" s="2"/>
       <c r="G715" s="2"/>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="s">
         <v>2133</v>
       </c>
@@ -21412,7 +21407,7 @@
       <c r="F716" s="2"/>
       <c r="G716" s="2"/>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
         <v>2136</v>
       </c>
@@ -21426,7 +21421,7 @@
       <c r="F717" s="2"/>
       <c r="G717" s="2"/>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="s">
         <v>2139</v>
       </c>
@@ -21440,7 +21435,7 @@
       <c r="F718" s="2"/>
       <c r="G718" s="2"/>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
         <v>2142</v>
       </c>
@@ -21454,7 +21449,7 @@
       <c r="F719" s="2"/>
       <c r="G719" s="2"/>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
         <v>2145</v>
       </c>
@@ -21468,7 +21463,7 @@
       <c r="F720" s="2"/>
       <c r="G720" s="2"/>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
         <v>2148</v>
       </c>
@@ -21482,7 +21477,7 @@
       <c r="F721" s="2"/>
       <c r="G721" s="2"/>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
         <v>2151</v>
       </c>
@@ -21496,7 +21491,7 @@
       <c r="F722" s="2"/>
       <c r="G722" s="2"/>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
         <v>2154</v>
       </c>
@@ -21510,7 +21505,7 @@
       <c r="F723" s="2"/>
       <c r="G723" s="2"/>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
         <v>2157</v>
       </c>
@@ -21524,7 +21519,7 @@
       <c r="F724" s="2"/>
       <c r="G724" s="2"/>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
         <v>2160</v>
       </c>
@@ -21538,7 +21533,7 @@
       <c r="F725" s="2"/>
       <c r="G725" s="2"/>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
         <v>2162</v>
       </c>
@@ -21552,7 +21547,7 @@
       <c r="F726" s="2"/>
       <c r="G726" s="2"/>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
         <v>2165</v>
       </c>
@@ -21566,7 +21561,7 @@
       <c r="F727" s="2"/>
       <c r="G727" s="2"/>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
         <v>2168</v>
       </c>
@@ -21580,7 +21575,7 @@
       <c r="F728" s="2"/>
       <c r="G728" s="2"/>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
         <v>2171</v>
       </c>
@@ -21594,7 +21589,7 @@
       <c r="F729" s="2"/>
       <c r="G729" s="2"/>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
         <v>2174</v>
       </c>
@@ -21608,7 +21603,7 @@
       <c r="F730" s="2"/>
       <c r="G730" s="2"/>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
         <v>2177</v>
       </c>
@@ -21622,7 +21617,7 @@
       <c r="F731" s="2"/>
       <c r="G731" s="2"/>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
         <v>2180</v>
       </c>
@@ -21636,7 +21631,7 @@
       <c r="F732" s="2"/>
       <c r="G732" s="2"/>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
         <v>2183</v>
       </c>
@@ -21650,7 +21645,7 @@
       <c r="F733" s="2"/>
       <c r="G733" s="2"/>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
         <v>2186</v>
       </c>
@@ -21664,7 +21659,7 @@
       <c r="F734" s="2"/>
       <c r="G734" s="2"/>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
         <v>2189</v>
       </c>
@@ -21678,7 +21673,7 @@
       <c r="F735" s="2"/>
       <c r="G735" s="2"/>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
         <v>2192</v>
       </c>
@@ -21692,7 +21687,7 @@
       <c r="F736" s="2"/>
       <c r="G736" s="2"/>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
         <v>2195</v>
       </c>
@@ -21706,7 +21701,7 @@
       <c r="F737" s="2"/>
       <c r="G737" s="2"/>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="s">
         <v>2198</v>
       </c>
@@ -21720,7 +21715,7 @@
       <c r="F738" s="2"/>
       <c r="G738" s="2"/>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
         <v>2201</v>
       </c>
@@ -21734,7 +21729,7 @@
       <c r="F739" s="2"/>
       <c r="G739" s="2"/>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
         <v>2204</v>
       </c>
@@ -21748,7 +21743,7 @@
       <c r="F740" s="2"/>
       <c r="G740" s="2"/>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="s">
         <v>2207</v>
       </c>
@@ -21762,7 +21757,7 @@
       <c r="F741" s="2"/>
       <c r="G741" s="2"/>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="s">
         <v>2210</v>
       </c>
@@ -21776,7 +21771,7 @@
       <c r="F742" s="2"/>
       <c r="G742" s="2"/>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="s">
         <v>2213</v>
       </c>
@@ -21790,7 +21785,7 @@
       <c r="F743" s="2"/>
       <c r="G743" s="2"/>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="s">
         <v>2216</v>
       </c>
@@ -21804,7 +21799,7 @@
       <c r="F744" s="2"/>
       <c r="G744" s="2"/>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
         <v>2219</v>
       </c>
@@ -21818,7 +21813,7 @@
       <c r="F745" s="2"/>
       <c r="G745" s="2"/>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="s">
         <v>2222</v>
       </c>
@@ -21832,7 +21827,7 @@
       <c r="F746" s="2"/>
       <c r="G746" s="2"/>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="s">
         <v>2225</v>
       </c>
@@ -21846,7 +21841,7 @@
       <c r="F747" s="2"/>
       <c r="G747" s="2"/>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="s">
         <v>2228</v>
       </c>
@@ -21860,7 +21855,7 @@
       <c r="F748" s="2"/>
       <c r="G748" s="2"/>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
         <v>2231</v>
       </c>
@@ -21874,7 +21869,7 @@
       <c r="F749" s="2"/>
       <c r="G749" s="2"/>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="s">
         <v>2234</v>
       </c>
@@ -21888,7 +21883,7 @@
       <c r="F750" s="2"/>
       <c r="G750" s="2"/>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2" t="s">
         <v>2237</v>
       </c>
@@ -21902,7 +21897,7 @@
       <c r="F751" s="2"/>
       <c r="G751" s="2"/>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="s">
         <v>2240</v>
       </c>
@@ -21916,7 +21911,7 @@
       <c r="F752" s="2"/>
       <c r="G752" s="2"/>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
         <v>2243</v>
       </c>
@@ -21930,7 +21925,7 @@
       <c r="F753" s="2"/>
       <c r="G753" s="2"/>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
         <v>2246</v>
       </c>
@@ -21944,7 +21939,7 @@
       <c r="F754" s="2"/>
       <c r="G754" s="2"/>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
         <v>2249</v>
       </c>
@@ -21958,7 +21953,7 @@
       <c r="F755" s="2"/>
       <c r="G755" s="2"/>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
         <v>2252</v>
       </c>
@@ -21972,7 +21967,7 @@
       <c r="F756" s="2"/>
       <c r="G756" s="2"/>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
         <v>2255</v>
       </c>
@@ -21986,7 +21981,7 @@
       <c r="F757" s="2"/>
       <c r="G757" s="2"/>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
         <v>2258</v>
       </c>
@@ -22000,7 +21995,7 @@
       <c r="F758" s="2"/>
       <c r="G758" s="2"/>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
         <v>2261</v>
       </c>
@@ -22014,7 +22009,7 @@
       <c r="F759" s="2"/>
       <c r="G759" s="2"/>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
         <v>2264</v>
       </c>
@@ -22028,7 +22023,7 @@
       <c r="F760" s="2"/>
       <c r="G760" s="2"/>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
         <v>2267</v>
       </c>
@@ -22042,7 +22037,7 @@
       <c r="F761" s="2"/>
       <c r="G761" s="2"/>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="s">
         <v>2270</v>
       </c>
@@ -22056,7 +22051,7 @@
       <c r="F762" s="2"/>
       <c r="G762" s="2"/>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
         <v>2273</v>
       </c>
@@ -22070,7 +22065,7 @@
       <c r="F763" s="2"/>
       <c r="G763" s="2"/>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
         <v>2276</v>
       </c>
@@ -22084,7 +22079,7 @@
       <c r="F764" s="2"/>
       <c r="G764" s="2"/>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
         <v>2279</v>
       </c>
@@ -22098,7 +22093,7 @@
       <c r="F765" s="2"/>
       <c r="G765" s="2"/>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
         <v>2282</v>
       </c>
@@ -22112,7 +22107,7 @@
       <c r="F766" s="2"/>
       <c r="G766" s="2"/>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
         <v>2285</v>
       </c>
@@ -22126,7 +22121,7 @@
       <c r="F767" s="2"/>
       <c r="G767" s="2"/>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
         <v>2288</v>
       </c>
@@ -22140,7 +22135,7 @@
       <c r="F768" s="2"/>
       <c r="G768" s="2"/>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2" t="s">
         <v>2291</v>
       </c>
@@ -22154,7 +22149,7 @@
       <c r="F769" s="2"/>
       <c r="G769" s="2"/>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2" t="s">
         <v>2294</v>
       </c>
@@ -22168,7 +22163,7 @@
       <c r="F770" s="2"/>
       <c r="G770" s="2"/>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
         <v>2297</v>
       </c>
@@ -22182,7 +22177,7 @@
       <c r="F771" s="2"/>
       <c r="G771" s="2"/>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="s">
         <v>2300</v>
       </c>
@@ -22196,7 +22191,7 @@
       <c r="F772" s="2"/>
       <c r="G772" s="2"/>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="s">
         <v>2303</v>
       </c>
@@ -22210,7 +22205,7 @@
       <c r="F773" s="2"/>
       <c r="G773" s="2"/>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
         <v>2306</v>
       </c>
@@ -22224,7 +22219,7 @@
       <c r="F774" s="2"/>
       <c r="G774" s="2"/>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2" t="s">
         <v>2309</v>
       </c>
@@ -22238,7 +22233,7 @@
       <c r="F775" s="2"/>
       <c r="G775" s="2"/>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="s">
         <v>2312</v>
       </c>
@@ -22252,7 +22247,7 @@
       <c r="F776" s="2"/>
       <c r="G776" s="2"/>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2" t="s">
         <v>2315</v>
       </c>
@@ -22266,7 +22261,7 @@
       <c r="F777" s="2"/>
       <c r="G777" s="2"/>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="s">
         <v>2318</v>
       </c>
@@ -22280,7 +22275,7 @@
       <c r="F778" s="2"/>
       <c r="G778" s="2"/>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2" t="s">
         <v>2321</v>
       </c>
@@ -22294,7 +22289,7 @@
       <c r="F779" s="2"/>
       <c r="G779" s="2"/>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2" t="s">
         <v>2324</v>
       </c>
@@ -22308,7 +22303,7 @@
       <c r="F780" s="2"/>
       <c r="G780" s="2"/>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2" t="s">
         <v>2327</v>
       </c>
@@ -22322,7 +22317,7 @@
       <c r="F781" s="2"/>
       <c r="G781" s="2"/>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2" t="s">
         <v>2330</v>
       </c>
@@ -22336,7 +22331,7 @@
       <c r="F782" s="2"/>
       <c r="G782" s="2"/>
     </row>
-    <row r="783" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2" t="s">
         <v>2333</v>
       </c>
@@ -22350,7 +22345,7 @@
       <c r="F783" s="2"/>
       <c r="G783" s="2"/>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2" t="s">
         <v>2336</v>
       </c>
@@ -22364,7 +22359,7 @@
       <c r="F784" s="2"/>
       <c r="G784" s="2"/>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2" t="s">
         <v>2339</v>
       </c>
@@ -22378,7 +22373,7 @@
       <c r="F785" s="2"/>
       <c r="G785" s="2"/>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2" t="s">
         <v>2342</v>
       </c>
@@ -22392,7 +22387,7 @@
       <c r="F786" s="2"/>
       <c r="G786" s="2"/>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2" t="s">
         <v>2345</v>
       </c>
@@ -22406,7 +22401,7 @@
       <c r="F787" s="2"/>
       <c r="G787" s="2"/>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2" t="s">
         <v>2348</v>
       </c>
@@ -22420,7 +22415,7 @@
       <c r="F788" s="2"/>
       <c r="G788" s="2"/>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2" t="s">
         <v>2351</v>
       </c>
@@ -22434,7 +22429,7 @@
       <c r="F789" s="2"/>
       <c r="G789" s="2"/>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2" t="s">
         <v>2354</v>
       </c>
@@ -22448,7 +22443,7 @@
       <c r="F790" s="2"/>
       <c r="G790" s="2"/>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2" t="s">
         <v>2357</v>
       </c>
@@ -22462,7 +22457,7 @@
       <c r="F791" s="2"/>
       <c r="G791" s="2"/>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2" t="s">
         <v>2360</v>
       </c>
@@ -22476,7 +22471,7 @@
       <c r="F792" s="2"/>
       <c r="G792" s="2"/>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2" t="s">
         <v>2363</v>
       </c>
@@ -22490,7 +22485,7 @@
       <c r="F793" s="2"/>
       <c r="G793" s="2"/>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2" t="s">
         <v>2366</v>
       </c>
@@ -22504,7 +22499,7 @@
       <c r="F794" s="2"/>
       <c r="G794" s="2"/>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2" t="s">
         <v>2369</v>
       </c>
@@ -22518,7 +22513,7 @@
       <c r="F795" s="2"/>
       <c r="G795" s="2"/>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2" t="s">
         <v>2372</v>
       </c>
@@ -22532,7 +22527,7 @@
       <c r="F796" s="2"/>
       <c r="G796" s="2"/>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2" t="s">
         <v>2375</v>
       </c>
@@ -22546,7 +22541,7 @@
       <c r="F797" s="2"/>
       <c r="G797" s="2"/>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2" t="s">
         <v>2378</v>
       </c>
@@ -22560,7 +22555,7 @@
       <c r="F798" s="2"/>
       <c r="G798" s="2"/>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2" t="s">
         <v>2381</v>
       </c>
@@ -22574,7 +22569,7 @@
       <c r="F799" s="2"/>
       <c r="G799" s="2"/>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2" t="s">
         <v>2384</v>
       </c>
@@ -22588,7 +22583,7 @@
       <c r="F800" s="2"/>
       <c r="G800" s="2"/>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="s">
         <v>2387</v>
       </c>
@@ -22602,7 +22597,7 @@
       <c r="F801" s="2"/>
       <c r="G801" s="2"/>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2" t="s">
         <v>2390</v>
       </c>
@@ -22616,7 +22611,7 @@
       <c r="F802" s="2"/>
       <c r="G802" s="2"/>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2" t="s">
         <v>2393</v>
       </c>
@@ -22630,7 +22625,7 @@
       <c r="F803" s="2"/>
       <c r="G803" s="2"/>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2" t="s">
         <v>2396</v>
       </c>
@@ -22644,7 +22639,7 @@
       <c r="F804" s="2"/>
       <c r="G804" s="2"/>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2" t="s">
         <v>2399</v>
       </c>
@@ -22658,7 +22653,7 @@
       <c r="F805" s="2"/>
       <c r="G805" s="2"/>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2" t="s">
         <v>2402</v>
       </c>
@@ -22672,7 +22667,7 @@
       <c r="F806" s="2"/>
       <c r="G806" s="2"/>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2" t="s">
         <v>2405</v>
       </c>
@@ -22686,7 +22681,7 @@
       <c r="F807" s="2"/>
       <c r="G807" s="2"/>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2" t="s">
         <v>2407</v>
       </c>
@@ -22700,7 +22695,7 @@
       <c r="F808" s="2"/>
       <c r="G808" s="2"/>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2" t="s">
         <v>2410</v>
       </c>
@@ -22714,7 +22709,7 @@
       <c r="F809" s="2"/>
       <c r="G809" s="2"/>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2" t="s">
         <v>2413</v>
       </c>
@@ -22728,7 +22723,7 @@
       <c r="F810" s="2"/>
       <c r="G810" s="2"/>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2" t="s">
         <v>2416</v>
       </c>
@@ -22742,7 +22737,7 @@
       <c r="F811" s="2"/>
       <c r="G811" s="2"/>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2" t="s">
         <v>2419</v>
       </c>
@@ -22756,7 +22751,7 @@
       <c r="F812" s="2"/>
       <c r="G812" s="2"/>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
         <v>2422</v>
       </c>
@@ -22770,7 +22765,7 @@
       <c r="F813" s="2"/>
       <c r="G813" s="2"/>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2" t="s">
         <v>2425</v>
       </c>
@@ -22784,7 +22779,7 @@
       <c r="F814" s="2"/>
       <c r="G814" s="2"/>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2" t="s">
         <v>2428</v>
       </c>
@@ -22798,7 +22793,7 @@
       <c r="F815" s="2"/>
       <c r="G815" s="2"/>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="s">
         <v>2431</v>
       </c>
@@ -22812,7 +22807,7 @@
       <c r="F816" s="2"/>
       <c r="G816" s="2"/>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2" t="s">
         <v>2434</v>
       </c>
@@ -22826,7 +22821,7 @@
       <c r="F817" s="2"/>
       <c r="G817" s="2"/>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2" t="s">
         <v>2437</v>
       </c>
@@ -22840,7 +22835,7 @@
       <c r="F818" s="2"/>
       <c r="G818" s="2"/>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2" t="s">
         <v>2440</v>
       </c>
@@ -22854,7 +22849,7 @@
       <c r="F819" s="2"/>
       <c r="G819" s="2"/>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2" t="s">
         <v>2443</v>
       </c>
@@ -22868,7 +22863,7 @@
       <c r="F820" s="2"/>
       <c r="G820" s="2"/>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2" t="s">
         <v>2446</v>
       </c>
@@ -22882,7 +22877,7 @@
       <c r="F821" s="2"/>
       <c r="G821" s="2"/>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2" t="s">
         <v>2449</v>
       </c>
@@ -22896,7 +22891,7 @@
       <c r="F822" s="2"/>
       <c r="G822" s="2"/>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2" t="s">
         <v>2452</v>
       </c>
@@ -22910,7 +22905,7 @@
       <c r="F823" s="2"/>
       <c r="G823" s="2"/>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2" t="s">
         <v>2455</v>
       </c>
@@ -22924,7 +22919,7 @@
       <c r="F824" s="2"/>
       <c r="G824" s="2"/>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2" t="s">
         <v>2458</v>
       </c>
@@ -22938,7 +22933,7 @@
       <c r="F825" s="2"/>
       <c r="G825" s="2"/>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="s">
         <v>2461</v>
       </c>
@@ -22952,7 +22947,7 @@
       <c r="F826" s="2"/>
       <c r="G826" s="2"/>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2" t="s">
         <v>2464</v>
       </c>
@@ -22966,7 +22961,7 @@
       <c r="F827" s="2"/>
       <c r="G827" s="2"/>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2" t="s">
         <v>2467</v>
       </c>
@@ -22980,7 +22975,7 @@
       <c r="F828" s="2"/>
       <c r="G828" s="2"/>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2" t="s">
         <v>2470</v>
       </c>
@@ -22994,7 +22989,7 @@
       <c r="F829" s="2"/>
       <c r="G829" s="2"/>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="s">
         <v>2473</v>
       </c>
@@ -23008,7 +23003,7 @@
       <c r="F830" s="2"/>
       <c r="G830" s="2"/>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="s">
         <v>2476</v>
       </c>
@@ -23022,7 +23017,7 @@
       <c r="F831" s="2"/>
       <c r="G831" s="2"/>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2" t="s">
         <v>2479</v>
       </c>
@@ -23036,7 +23031,7 @@
       <c r="F832" s="2"/>
       <c r="G832" s="2"/>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2" t="s">
         <v>2482</v>
       </c>
@@ -23050,7 +23045,7 @@
       <c r="F833" s="2"/>
       <c r="G833" s="2"/>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2" t="s">
         <v>2485</v>
       </c>
@@ -23064,7 +23059,7 @@
       <c r="F834" s="2"/>
       <c r="G834" s="2"/>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2" t="s">
         <v>2488</v>
       </c>
@@ -23078,7 +23073,7 @@
       <c r="F835" s="2"/>
       <c r="G835" s="2"/>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2" t="s">
         <v>2491</v>
       </c>
@@ -23092,7 +23087,7 @@
       <c r="F836" s="2"/>
       <c r="G836" s="2"/>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2" t="s">
         <v>2493</v>
       </c>
@@ -23106,7 +23101,7 @@
       <c r="F837" s="2"/>
       <c r="G837" s="2"/>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2" t="s">
         <v>2496</v>
       </c>
@@ -23120,7 +23115,7 @@
       <c r="F838" s="2"/>
       <c r="G838" s="2"/>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2" t="s">
         <v>2499</v>
       </c>
@@ -23134,7 +23129,7 @@
       <c r="F839" s="2"/>
       <c r="G839" s="2"/>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2" t="s">
         <v>2502</v>
       </c>
@@ -23148,7 +23143,7 @@
       <c r="F840" s="2"/>
       <c r="G840" s="2"/>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2" t="s">
         <v>2505</v>
       </c>
@@ -23162,7 +23157,7 @@
       <c r="F841" s="2"/>
       <c r="G841" s="2"/>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2" t="s">
         <v>2508</v>
       </c>
@@ -23176,7 +23171,7 @@
       <c r="F842" s="2"/>
       <c r="G842" s="2"/>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2" t="s">
         <v>2511</v>
       </c>
@@ -23190,7 +23185,7 @@
       <c r="F843" s="2"/>
       <c r="G843" s="2"/>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2" t="s">
         <v>2514</v>
       </c>
@@ -23204,7 +23199,7 @@
       <c r="F844" s="2"/>
       <c r="G844" s="2"/>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2" t="s">
         <v>2517</v>
       </c>
@@ -23218,7 +23213,7 @@
       <c r="F845" s="2"/>
       <c r="G845" s="2"/>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2" t="s">
         <v>2520</v>
       </c>
@@ -23232,7 +23227,7 @@
       <c r="F846" s="2"/>
       <c r="G846" s="2"/>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2" t="s">
         <v>2523</v>
       </c>
@@ -23246,7 +23241,7 @@
       <c r="F847" s="2"/>
       <c r="G847" s="2"/>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2" t="s">
         <v>2526</v>
       </c>
@@ -23260,7 +23255,7 @@
       <c r="F848" s="2"/>
       <c r="G848" s="2"/>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2" t="s">
         <v>2529</v>
       </c>
@@ -23274,7 +23269,7 @@
       <c r="F849" s="2"/>
       <c r="G849" s="2"/>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2" t="s">
         <v>2532</v>
       </c>
@@ -23288,7 +23283,7 @@
       <c r="F850" s="2"/>
       <c r="G850" s="2"/>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="s">
         <v>2535</v>
       </c>
@@ -23302,7 +23297,7 @@
       <c r="F851" s="2"/>
       <c r="G851" s="2"/>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
         <v>2538</v>
       </c>
@@ -23316,7 +23311,7 @@
       <c r="F852" s="2"/>
       <c r="G852" s="2"/>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2" t="s">
         <v>2541</v>
       </c>
@@ -23330,7 +23325,7 @@
       <c r="F853" s="2"/>
       <c r="G853" s="2"/>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2" t="s">
         <v>2544</v>
       </c>
@@ -23344,7 +23339,7 @@
       <c r="F854" s="2"/>
       <c r="G854" s="2"/>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2" t="s">
         <v>2547</v>
       </c>
@@ -23358,7 +23353,7 @@
       <c r="F855" s="2"/>
       <c r="G855" s="2"/>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
         <v>2550</v>
       </c>
@@ -23372,7 +23367,7 @@
       <c r="F856" s="2"/>
       <c r="G856" s="2"/>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2" t="s">
         <v>2553</v>
       </c>
@@ -23386,7 +23381,7 @@
       <c r="F857" s="2"/>
       <c r="G857" s="2"/>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2" t="s">
         <v>2556</v>
       </c>
@@ -23400,7 +23395,7 @@
       <c r="F858" s="2"/>
       <c r="G858" s="2"/>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="s">
         <v>2559</v>
       </c>
@@ -23414,7 +23409,7 @@
       <c r="F859" s="2"/>
       <c r="G859" s="2"/>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2" t="s">
         <v>2562</v>
       </c>
@@ -23428,7 +23423,7 @@
       <c r="F860" s="2"/>
       <c r="G860" s="2"/>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2" t="s">
         <v>2565</v>
       </c>
@@ -23442,7 +23437,7 @@
       <c r="F861" s="2"/>
       <c r="G861" s="2"/>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2" t="s">
         <v>2568</v>
       </c>
@@ -23456,7 +23451,7 @@
       <c r="F862" s="2"/>
       <c r="G862" s="2"/>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2" t="s">
         <v>2571</v>
       </c>
@@ -23470,7 +23465,7 @@
       <c r="F863" s="2"/>
       <c r="G863" s="2"/>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2" t="s">
         <v>2574</v>
       </c>
@@ -23484,7 +23479,7 @@
       <c r="F864" s="2"/>
       <c r="G864" s="2"/>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2" t="s">
         <v>2577</v>
       </c>
@@ -23498,7 +23493,7 @@
       <c r="F865" s="2"/>
       <c r="G865" s="2"/>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2" t="s">
         <v>2580</v>
       </c>
@@ -23512,7 +23507,7 @@
       <c r="F866" s="2"/>
       <c r="G866" s="2"/>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2" t="s">
         <v>2583</v>
       </c>
@@ -23526,7 +23521,7 @@
       <c r="F867" s="2"/>
       <c r="G867" s="2"/>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2" t="s">
         <v>2586</v>
       </c>
@@ -23540,7 +23535,7 @@
       <c r="F868" s="2"/>
       <c r="G868" s="2"/>
     </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2" t="s">
         <v>2589</v>
       </c>
@@ -23554,7 +23549,7 @@
       <c r="F869" s="2"/>
       <c r="G869" s="2"/>
     </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2" t="s">
         <v>2592</v>
       </c>
@@ -23568,7 +23563,7 @@
       <c r="F870" s="2"/>
       <c r="G870" s="2"/>
     </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2" t="s">
         <v>2595</v>
       </c>
@@ -23582,7 +23577,7 @@
       <c r="F871" s="2"/>
       <c r="G871" s="2"/>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2" t="s">
         <v>2598</v>
       </c>
@@ -23596,7 +23591,7 @@
       <c r="F872" s="2"/>
       <c r="G872" s="2"/>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2" t="s">
         <v>2601</v>
       </c>
@@ -23610,7 +23605,7 @@
       <c r="F873" s="2"/>
       <c r="G873" s="2"/>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2" t="s">
         <v>2604</v>
       </c>
@@ -23624,7 +23619,7 @@
       <c r="F874" s="2"/>
       <c r="G874" s="2"/>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2" t="s">
         <v>2607</v>
       </c>
@@ -23638,7 +23633,7 @@
       <c r="F875" s="2"/>
       <c r="G875" s="2"/>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2" t="s">
         <v>2610</v>
       </c>
@@ -23652,7 +23647,7 @@
       <c r="F876" s="2"/>
       <c r="G876" s="2"/>
     </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2" t="s">
         <v>2613</v>
       </c>
@@ -23666,7 +23661,7 @@
       <c r="F877" s="2"/>
       <c r="G877" s="2"/>
     </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2" t="s">
         <v>2616</v>
       </c>
@@ -23680,7 +23675,7 @@
       <c r="F878" s="2"/>
       <c r="G878" s="2"/>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2" t="s">
         <v>2619</v>
       </c>
@@ -23694,7 +23689,7 @@
       <c r="F879" s="2"/>
       <c r="G879" s="2"/>
     </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2" t="s">
         <v>2622</v>
       </c>
@@ -23708,7 +23703,7 @@
       <c r="F880" s="2"/>
       <c r="G880" s="2"/>
     </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2" t="s">
         <v>2625</v>
       </c>
@@ -23722,7 +23717,7 @@
       <c r="F881" s="2"/>
       <c r="G881" s="2"/>
     </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2" t="s">
         <v>2628</v>
       </c>
@@ -23736,7 +23731,7 @@
       <c r="F882" s="2"/>
       <c r="G882" s="2"/>
     </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2" t="s">
         <v>2631</v>
       </c>
@@ -23750,7 +23745,7 @@
       <c r="F883" s="2"/>
       <c r="G883" s="2"/>
     </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2" t="s">
         <v>2634</v>
       </c>
@@ -23764,7 +23759,7 @@
       <c r="F884" s="2"/>
       <c r="G884" s="2"/>
     </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2" t="s">
         <v>2637</v>
       </c>
@@ -23778,7 +23773,7 @@
       <c r="F885" s="2"/>
       <c r="G885" s="2"/>
     </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2" t="s">
         <v>2640</v>
       </c>
@@ -23792,7 +23787,7 @@
       <c r="F886" s="2"/>
       <c r="G886" s="2"/>
     </row>
-    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2" t="s">
         <v>2643</v>
       </c>
@@ -23806,7 +23801,7 @@
       <c r="F887" s="2"/>
       <c r="G887" s="2"/>
     </row>
-    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2" t="s">
         <v>2646</v>
       </c>
@@ -23820,7 +23815,7 @@
       <c r="F888" s="2"/>
       <c r="G888" s="2"/>
     </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2" t="s">
         <v>2649</v>
       </c>
@@ -23834,7 +23829,7 @@
       <c r="F889" s="2"/>
       <c r="G889" s="2"/>
     </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2" t="s">
         <v>2652</v>
       </c>
@@ -23848,7 +23843,7 @@
       <c r="F890" s="2"/>
       <c r="G890" s="2"/>
     </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2" t="s">
         <v>2655</v>
       </c>
@@ -23862,7 +23857,7 @@
       <c r="F891" s="2"/>
       <c r="G891" s="2"/>
     </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2" t="s">
         <v>2658</v>
       </c>
@@ -23876,7 +23871,7 @@
       <c r="F892" s="2"/>
       <c r="G892" s="2"/>
     </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="s">
         <v>2661</v>
       </c>
@@ -23890,7 +23885,7 @@
       <c r="F893" s="2"/>
       <c r="G893" s="2"/>
     </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2" t="s">
         <v>2664</v>
       </c>
@@ -23904,7 +23899,7 @@
       <c r="F894" s="2"/>
       <c r="G894" s="2"/>
     </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2" t="s">
         <v>2667</v>
       </c>
@@ -23918,7 +23913,7 @@
       <c r="F895" s="2"/>
       <c r="G895" s="2"/>
     </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
         <v>2670</v>
       </c>
@@ -23932,7 +23927,7 @@
       <c r="F896" s="2"/>
       <c r="G896" s="2"/>
     </row>
-    <row r="897" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2" t="s">
         <v>2673</v>
       </c>
@@ -23946,7 +23941,7 @@
       <c r="F897" s="2"/>
       <c r="G897" s="2"/>
     </row>
-    <row r="898" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2" t="s">
         <v>2676</v>
       </c>
@@ -23960,7 +23955,7 @@
       <c r="F898" s="2"/>
       <c r="G898" s="2"/>
     </row>
-    <row r="899" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2" t="s">
         <v>2679</v>
       </c>
@@ -23974,7 +23969,7 @@
       <c r="F899" s="2"/>
       <c r="G899" s="2"/>
     </row>
-    <row r="900" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2" t="s">
         <v>2682</v>
       </c>
@@ -23988,7 +23983,7 @@
       <c r="F900" s="2"/>
       <c r="G900" s="2"/>
     </row>
-    <row r="901" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2" t="s">
         <v>2685</v>
       </c>
@@ -24002,7 +23997,7 @@
       <c r="F901" s="2"/>
       <c r="G901" s="2"/>
     </row>
-    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2" t="s">
         <v>2688</v>
       </c>
@@ -24016,7 +24011,7 @@
       <c r="F902" s="2"/>
       <c r="G902" s="2"/>
     </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2" t="s">
         <v>2691</v>
       </c>
@@ -24030,7 +24025,7 @@
       <c r="F903" s="2"/>
       <c r="G903" s="2"/>
     </row>
-    <row r="904" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2" t="s">
         <v>2694</v>
       </c>
@@ -24044,7 +24039,7 @@
       <c r="F904" s="2"/>
       <c r="G904" s="2"/>
     </row>
-    <row r="905" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
         <v>2697</v>
       </c>
@@ -24058,7 +24053,7 @@
       <c r="F905" s="2"/>
       <c r="G905" s="2"/>
     </row>
-    <row r="906" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2" t="s">
         <v>2700</v>
       </c>
@@ -24072,7 +24067,7 @@
       <c r="F906" s="2"/>
       <c r="G906" s="2"/>
     </row>
-    <row r="907" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2" t="s">
         <v>2703</v>
       </c>
@@ -24086,7 +24081,7 @@
       <c r="F907" s="2"/>
       <c r="G907" s="2"/>
     </row>
-    <row r="908" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2" t="s">
         <v>2706</v>
       </c>
@@ -24100,7 +24095,7 @@
       <c r="F908" s="2"/>
       <c r="G908" s="2"/>
     </row>
-    <row r="909" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
         <v>2709</v>
       </c>
@@ -24114,7 +24109,7 @@
       <c r="F909" s="2"/>
       <c r="G909" s="2"/>
     </row>
-    <row r="910" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2" t="s">
         <v>2712</v>
       </c>
@@ -24128,7 +24123,7 @@
       <c r="F910" s="2"/>
       <c r="G910" s="2"/>
     </row>
-    <row r="911" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2" t="s">
         <v>2715</v>
       </c>
@@ -24142,7 +24137,7 @@
       <c r="F911" s="2"/>
       <c r="G911" s="2"/>
     </row>
-    <row r="912" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2" t="s">
         <v>2718</v>
       </c>
@@ -24156,7 +24151,7 @@
       <c r="F912" s="2"/>
       <c r="G912" s="2"/>
     </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2" t="s">
         <v>2721</v>
       </c>
@@ -24170,7 +24165,7 @@
       <c r="F913" s="2"/>
       <c r="G913" s="2"/>
     </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2" t="s">
         <v>2724</v>
       </c>
@@ -24184,7 +24179,7 @@
       <c r="F914" s="2"/>
       <c r="G914" s="2"/>
     </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2" t="s">
         <v>2727</v>
       </c>
@@ -24198,7 +24193,7 @@
       <c r="F915" s="2"/>
       <c r="G915" s="2"/>
     </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2" t="s">
         <v>2730</v>
       </c>
@@ -24212,7 +24207,7 @@
       <c r="F916" s="2"/>
       <c r="G916" s="2"/>
     </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2" t="s">
         <v>2733</v>
       </c>
@@ -24226,7 +24221,7 @@
       <c r="F917" s="2"/>
       <c r="G917" s="2"/>
     </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2" t="s">
         <v>2736</v>
       </c>
@@ -24240,7 +24235,7 @@
       <c r="F918" s="2"/>
       <c r="G918" s="2"/>
     </row>
-    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2" t="s">
         <v>2739</v>
       </c>
@@ -24254,7 +24249,7 @@
       <c r="F919" s="2"/>
       <c r="G919" s="2"/>
     </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2" t="s">
         <v>2742</v>
       </c>
@@ -24268,7 +24263,7 @@
       <c r="F920" s="2"/>
       <c r="G920" s="2"/>
     </row>
-    <row r="921" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2" t="s">
         <v>2745</v>
       </c>
@@ -24282,7 +24277,7 @@
       <c r="F921" s="2"/>
       <c r="G921" s="2"/>
     </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2" t="s">
         <v>2748</v>
       </c>
@@ -24296,7 +24291,7 @@
       <c r="F922" s="2"/>
       <c r="G922" s="2"/>
     </row>
-    <row r="923" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2" t="s">
         <v>2751</v>
       </c>
@@ -24310,7 +24305,7 @@
       <c r="F923" s="2"/>
       <c r="G923" s="2"/>
     </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2" t="s">
         <v>2754</v>
       </c>
@@ -24324,7 +24319,7 @@
       <c r="F924" s="2"/>
       <c r="G924" s="2"/>
     </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2" t="s">
         <v>2757</v>
       </c>
@@ -24338,7 +24333,7 @@
       <c r="F925" s="2"/>
       <c r="G925" s="2"/>
     </row>
-    <row r="926" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2" t="s">
         <v>2760</v>
       </c>
@@ -24352,7 +24347,7 @@
       <c r="F926" s="2"/>
       <c r="G926" s="2"/>
     </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2" t="s">
         <v>2763</v>
       </c>
@@ -24366,7 +24361,7 @@
       <c r="F927" s="2"/>
       <c r="G927" s="2"/>
     </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2" t="s">
         <v>2766</v>
       </c>
@@ -24380,7 +24375,7 @@
       <c r="F928" s="2"/>
       <c r="G928" s="2"/>
     </row>
-    <row r="929" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2" t="s">
         <v>2769</v>
       </c>
@@ -24394,7 +24389,7 @@
       <c r="F929" s="2"/>
       <c r="G929" s="2"/>
     </row>
-    <row r="930" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2" t="s">
         <v>2772</v>
       </c>
@@ -24408,7 +24403,7 @@
       <c r="F930" s="2"/>
       <c r="G930" s="2"/>
     </row>
-    <row r="931" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2" t="s">
         <v>2775</v>
       </c>
@@ -24422,7 +24417,7 @@
       <c r="F931" s="2"/>
       <c r="G931" s="2"/>
     </row>
-    <row r="932" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2" t="s">
         <v>2778</v>
       </c>
@@ -24436,7 +24431,7 @@
       <c r="F932" s="2"/>
       <c r="G932" s="2"/>
     </row>
-    <row r="933" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2" t="s">
         <v>2781</v>
       </c>
@@ -24450,7 +24445,7 @@
       <c r="F933" s="2"/>
       <c r="G933" s="2"/>
     </row>
-    <row r="934" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2" t="s">
         <v>2784</v>
       </c>
@@ -24464,7 +24459,7 @@
       <c r="F934" s="2"/>
       <c r="G934" s="2"/>
     </row>
-    <row r="935" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2" t="s">
         <v>2787</v>
       </c>
@@ -24478,7 +24473,7 @@
       <c r="F935" s="2"/>
       <c r="G935" s="2"/>
     </row>
-    <row r="936" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2" t="s">
         <v>2790</v>
       </c>
@@ -24492,7 +24487,7 @@
       <c r="F936" s="2"/>
       <c r="G936" s="2"/>
     </row>
-    <row r="937" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2" t="s">
         <v>2793</v>
       </c>
@@ -24506,7 +24501,7 @@
       <c r="F937" s="2"/>
       <c r="G937" s="2"/>
     </row>
-    <row r="938" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2" t="s">
         <v>2796</v>
       </c>
@@ -24520,7 +24515,7 @@
       <c r="F938" s="2"/>
       <c r="G938" s="2"/>
     </row>
-    <row r="939" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2" t="s">
         <v>2799</v>
       </c>
@@ -24534,7 +24529,7 @@
       <c r="F939" s="2"/>
       <c r="G939" s="2"/>
     </row>
-    <row r="940" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2" t="s">
         <v>2802</v>
       </c>
@@ -24548,7 +24543,7 @@
       <c r="F940" s="2"/>
       <c r="G940" s="2"/>
     </row>
-    <row r="941" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2" t="s">
         <v>2805</v>
       </c>
@@ -24562,7 +24557,7 @@
       <c r="F941" s="2"/>
       <c r="G941" s="2"/>
     </row>
-    <row r="942" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2" t="s">
         <v>2808</v>
       </c>
@@ -24576,7 +24571,7 @@
       <c r="F942" s="2"/>
       <c r="G942" s="2"/>
     </row>
-    <row r="943" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2" t="s">
         <v>2811</v>
       </c>
@@ -24590,7 +24585,7 @@
       <c r="F943" s="2"/>
       <c r="G943" s="2"/>
     </row>
-    <row r="944" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2" t="s">
         <v>2814</v>
       </c>
@@ -24604,7 +24599,7 @@
       <c r="F944" s="2"/>
       <c r="G944" s="2"/>
     </row>
-    <row r="945" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2" t="s">
         <v>2817</v>
       </c>
@@ -24618,7 +24613,7 @@
       <c r="F945" s="2"/>
       <c r="G945" s="2"/>
     </row>
-    <row r="946" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2" t="s">
         <v>2820</v>
       </c>
@@ -24632,7 +24627,7 @@
       <c r="F946" s="2"/>
       <c r="G946" s="2"/>
     </row>
-    <row r="947" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2" t="s">
         <v>2823</v>
       </c>
@@ -24646,7 +24641,7 @@
       <c r="F947" s="2"/>
       <c r="G947" s="2"/>
     </row>
-    <row r="948" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2" t="s">
         <v>2826</v>
       </c>
@@ -24660,7 +24655,7 @@
       <c r="F948" s="2"/>
       <c r="G948" s="2"/>
     </row>
-    <row r="949" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2" t="s">
         <v>2829</v>
       </c>
@@ -24674,7 +24669,7 @@
       <c r="F949" s="2"/>
       <c r="G949" s="2"/>
     </row>
-    <row r="950" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2" t="s">
         <v>2832</v>
       </c>
@@ -24688,7 +24683,7 @@
       <c r="F950" s="2"/>
       <c r="G950" s="2"/>
     </row>
-    <row r="951" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2" t="s">
         <v>2835</v>
       </c>
@@ -24702,7 +24697,7 @@
       <c r="F951" s="2"/>
       <c r="G951" s="2"/>
     </row>
-    <row r="952" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2" t="s">
         <v>2838</v>
       </c>
@@ -24716,7 +24711,7 @@
       <c r="F952" s="2"/>
       <c r="G952" s="2"/>
     </row>
-    <row r="953" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2" t="s">
         <v>2841</v>
       </c>
@@ -24730,7 +24725,7 @@
       <c r="F953" s="2"/>
       <c r="G953" s="2"/>
     </row>
-    <row r="954" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2" t="s">
         <v>2844</v>
       </c>
@@ -24744,7 +24739,7 @@
       <c r="F954" s="2"/>
       <c r="G954" s="2"/>
     </row>
-    <row r="955" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2" t="s">
         <v>2847</v>
       </c>
@@ -24758,7 +24753,7 @@
       <c r="F955" s="2"/>
       <c r="G955" s="2"/>
     </row>
-    <row r="956" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2" t="s">
         <v>2850</v>
       </c>
@@ -24772,7 +24767,7 @@
       <c r="F956" s="2"/>
       <c r="G956" s="2"/>
     </row>
-    <row r="957" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2" t="s">
         <v>2853</v>
       </c>
@@ -24786,7 +24781,7 @@
       <c r="F957" s="2"/>
       <c r="G957" s="2"/>
     </row>
-    <row r="958" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2" t="s">
         <v>2856</v>
       </c>
@@ -24800,7 +24795,7 @@
       <c r="F958" s="2"/>
       <c r="G958" s="2"/>
     </row>
-    <row r="959" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2" t="s">
         <v>2859</v>
       </c>
@@ -24814,7 +24809,7 @@
       <c r="F959" s="2"/>
       <c r="G959" s="2"/>
     </row>
-    <row r="960" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2" t="s">
         <v>2862</v>
       </c>
@@ -24828,7 +24823,7 @@
       <c r="F960" s="2"/>
       <c r="G960" s="2"/>
     </row>
-    <row r="961" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2" t="s">
         <v>2865</v>
       </c>
@@ -24842,7 +24837,7 @@
       <c r="F961" s="2"/>
       <c r="G961" s="2"/>
     </row>
-    <row r="962" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2" t="s">
         <v>2868</v>
       </c>
@@ -24856,7 +24851,7 @@
       <c r="F962" s="2"/>
       <c r="G962" s="2"/>
     </row>
-    <row r="963" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2" t="s">
         <v>2871</v>
       </c>
@@ -24870,7 +24865,7 @@
       <c r="F963" s="2"/>
       <c r="G963" s="2"/>
     </row>
-    <row r="964" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2" t="s">
         <v>2874</v>
       </c>
@@ -24884,7 +24879,7 @@
       <c r="F964" s="2"/>
       <c r="G964" s="2"/>
     </row>
-    <row r="965" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2" t="s">
         <v>2877</v>
       </c>
@@ -24898,7 +24893,7 @@
       <c r="F965" s="2"/>
       <c r="G965" s="2"/>
     </row>
-    <row r="966" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2" t="s">
         <v>2880</v>
       </c>
@@ -24912,7 +24907,7 @@
       <c r="F966" s="2"/>
       <c r="G966" s="2"/>
     </row>
-    <row r="967" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2" t="s">
         <v>2883</v>
       </c>
@@ -24926,7 +24921,7 @@
       <c r="F967" s="2"/>
       <c r="G967" s="2"/>
     </row>
-    <row r="968" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2" t="s">
         <v>2886</v>
       </c>
@@ -24940,7 +24935,7 @@
       <c r="F968" s="2"/>
       <c r="G968" s="2"/>
     </row>
-    <row r="969" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2" t="s">
         <v>2889</v>
       </c>
@@ -24954,7 +24949,7 @@
       <c r="F969" s="2"/>
       <c r="G969" s="2"/>
     </row>
-    <row r="970" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2" t="s">
         <v>2892</v>
       </c>
@@ -24968,7 +24963,7 @@
       <c r="F970" s="2"/>
       <c r="G970" s="2"/>
     </row>
-    <row r="971" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2" t="s">
         <v>2895</v>
       </c>
@@ -24982,7 +24977,7 @@
       <c r="F971" s="2"/>
       <c r="G971" s="2"/>
     </row>
-    <row r="972" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2" t="s">
         <v>2898</v>
       </c>
@@ -24996,7 +24991,7 @@
       <c r="F972" s="2"/>
       <c r="G972" s="2"/>
     </row>
-    <row r="973" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2" t="s">
         <v>2901</v>
       </c>
@@ -25010,7 +25005,7 @@
       <c r="F973" s="2"/>
       <c r="G973" s="2"/>
     </row>
-    <row r="974" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2" t="s">
         <v>2904</v>
       </c>
@@ -25024,7 +25019,7 @@
       <c r="F974" s="2"/>
       <c r="G974" s="2"/>
     </row>
-    <row r="975" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2" t="s">
         <v>2907</v>
       </c>
@@ -25038,7 +25033,7 @@
       <c r="F975" s="2"/>
       <c r="G975" s="2"/>
     </row>
-    <row r="976" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2" t="s">
         <v>2910</v>
       </c>
@@ -25053,7 +25048,23 @@
       <c r="G976" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J976" xr:uid="{695B78A4-FF2B-462E-BE07-9DE80B8A6775}"/>
+  <autoFilter ref="A1:J976" xr:uid="{695B78A4-FF2B-462E-BE07-9DE80B8A6775}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="335 homes evacuated in Brechin"/>
+        <filter val="Aberdeenshire"/>
+        <filter val="Angus"/>
+        <filter val="Aviemore Holiday Park"/>
+        <filter val="Brechin"/>
+        <filter val="Brechin Angus"/>
+        <filter val="Brechin in Angus, Tannadice, Finavon"/>
+        <filter val="Eastern Scotland"/>
+        <filter val="River street in Brechin"/>
+        <filter val="Scotland"/>
+        <filter val="Scotland, Ireland"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
